--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="115">
   <si>
     <t>featureName</t>
   </si>
@@ -576,9 +576,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2283">
+  <cellStyleXfs count="2343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2926,7 +2986,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2283">
+  <cellStyles count="2343">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4069,6 +4129,36 @@
     <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5209,6 +5299,36 @@
     <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5546,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1471"/>
+  <dimension ref="A1:H1485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G150" sqref="A1:G155"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6910,7 +7030,7 @@
       <c r="D59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F59" s="9">
@@ -6933,7 +7053,7 @@
       <c r="D60" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="9">
@@ -6945,373 +7065,374 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="D61" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="9">
         <v>1</v>
       </c>
-      <c r="G61" s="1">
-        <v>10242</v>
+      <c r="G61" s="9">
+        <v>2268</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="9">
+        <v>331</v>
+      </c>
+      <c r="G63" s="9">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="9">
+        <v>589</v>
+      </c>
+      <c r="G64" s="9">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="9">
+        <v>814</v>
+      </c>
+      <c r="G65" s="9">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G66" s="9">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="9">
+        <v>3328</v>
+      </c>
+      <c r="G67" s="9">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="9">
+        <v>4003</v>
+      </c>
+      <c r="G68" s="9">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="9">
+        <v>4393</v>
+      </c>
+      <c r="G69" s="9">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="9">
+        <v>6241</v>
+      </c>
+      <c r="G70" s="9">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="9">
+        <v>6598</v>
+      </c>
+      <c r="G71" s="9">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="9">
+        <v>6667</v>
+      </c>
+      <c r="G72" s="9">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="9">
+        <v>7423</v>
+      </c>
+      <c r="G73" s="9">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G74" s="9">
+        <v>10116</v>
+      </c>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B75" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="C75" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E75" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G76" s="1">
         <v>10242</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="27">
-        <v>1</v>
-      </c>
-      <c r="G63" s="27">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="27">
-        <v>1</v>
-      </c>
-      <c r="G64" s="27">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="27">
-        <v>112</v>
-      </c>
-      <c r="G65" s="27">
-        <v>10359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="27">
-        <v>112</v>
-      </c>
-      <c r="G66" s="27">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="27">
-        <v>112</v>
-      </c>
-      <c r="G67" s="27">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="27">
-        <v>442</v>
-      </c>
-      <c r="G68" s="27">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="27">
-        <v>946</v>
-      </c>
-      <c r="G69" s="27">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F70" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G70" s="27">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G71" s="27">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="27">
-        <v>3496</v>
-      </c>
-      <c r="G72" s="27">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="27">
-        <v>4186</v>
-      </c>
-      <c r="G73" s="27">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="27">
-        <v>4579</v>
-      </c>
-      <c r="G74" s="27">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="27">
-        <v>6445</v>
-      </c>
-      <c r="G75" s="27">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="27">
-        <v>6823</v>
-      </c>
-      <c r="G76" s="27">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="36" t="s">
         <v>33</v>
       </c>
@@ -7325,16 +7446,16 @@
         <v>43</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F77" s="27">
-        <v>6892</v>
+        <v>1</v>
       </c>
       <c r="G77" s="27">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="36" t="s">
         <v>33</v>
       </c>
@@ -7348,16 +7469,16 @@
         <v>43</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F78" s="27">
-        <v>7648</v>
+        <v>1</v>
       </c>
       <c r="G78" s="27">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="36" t="s">
         <v>33</v>
       </c>
@@ -7371,335 +7492,335 @@
         <v>43</v>
       </c>
       <c r="E79" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="27">
+        <v>112</v>
+      </c>
+      <c r="G79" s="27">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="27">
+        <v>112</v>
+      </c>
+      <c r="G80" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="27">
+        <v>112</v>
+      </c>
+      <c r="G81" s="27">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="27">
+        <v>442</v>
+      </c>
+      <c r="G82" s="27">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="27">
+        <v>946</v>
+      </c>
+      <c r="G83" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G84" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G85" s="27">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="27">
+        <v>3496</v>
+      </c>
+      <c r="G86" s="27">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="27">
+        <v>4186</v>
+      </c>
+      <c r="G87" s="27">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="27">
+        <v>4579</v>
+      </c>
+      <c r="G88" s="27">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="27">
+        <v>6445</v>
+      </c>
+      <c r="G89" s="27">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="27">
+        <v>6823</v>
+      </c>
+      <c r="G90" s="27">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G91" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G92" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F93" s="27">
         <v>10357</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G93" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="27">
-        <v>1</v>
-      </c>
-      <c r="G80" s="27">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="27">
-        <v>1</v>
-      </c>
-      <c r="G81" s="27">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="27">
-        <v>342</v>
-      </c>
-      <c r="G82" s="27">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="27">
-        <v>342</v>
-      </c>
-      <c r="G83" s="27">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="27">
-        <v>342</v>
-      </c>
-      <c r="G84" s="27">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" s="27">
-        <v>915</v>
-      </c>
-      <c r="G85" s="27">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="27">
-        <v>1491</v>
-      </c>
-      <c r="G86" s="27">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F87" s="27">
-        <v>2580</v>
-      </c>
-      <c r="G87" s="27">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" s="27">
-        <v>2580</v>
-      </c>
-      <c r="G88" s="27">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" s="27">
-        <v>2769</v>
-      </c>
-      <c r="G89" s="27">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="27">
-        <v>3420</v>
-      </c>
-      <c r="G90" s="27">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" s="27">
-        <v>5313</v>
-      </c>
-      <c r="G91" s="27">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="27">
-        <v>5475</v>
-      </c>
-      <c r="G92" s="27">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="27">
-        <v>6258</v>
-      </c>
-      <c r="G93" s="27">
-        <v>7601</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7716,13 +7837,13 @@
         <v>107</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F94" s="27">
-        <v>7602</v>
+        <v>1</v>
       </c>
       <c r="G94" s="27">
-        <v>9374</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7739,307 +7860,333 @@
         <v>107</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F95" s="27">
-        <v>9378</v>
+        <v>1</v>
       </c>
       <c r="G95" s="27">
-        <v>9646</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96"/>
+      <c r="A96" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E96" s="27" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F96" s="27">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="G96" s="27">
-        <v>9867</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97"/>
+      <c r="A97" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E97" s="27" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F97" s="27">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="G97" s="27">
-        <v>327</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98"/>
+      <c r="A98" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E98" s="27" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F98" s="27">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="G98" s="27">
-        <v>9501</v>
+        <v>914</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99"/>
+      <c r="A99" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E99" s="27" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F99" s="27">
-        <v>328</v>
+        <v>915</v>
       </c>
       <c r="G99" s="27">
-        <v>2199</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100"/>
+      <c r="A100" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E100" s="27" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F100" s="27">
-        <v>328</v>
+        <v>1491</v>
       </c>
       <c r="G100" s="27">
-        <v>564</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101"/>
+      <c r="A101" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E101" s="27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F101" s="27">
-        <v>565</v>
+        <v>2580</v>
       </c>
       <c r="G101" s="27">
-        <v>1137</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102"/>
+      <c r="A102" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E102" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F102" s="27">
-        <v>1138</v>
+        <v>2580</v>
       </c>
       <c r="G102" s="27">
-        <v>2199</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103"/>
+      <c r="A103" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E103" s="27" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F103" s="27">
-        <v>2200</v>
+        <v>2769</v>
       </c>
       <c r="G103" s="27">
-        <v>2910</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104"/>
+      <c r="A104" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E104" s="27" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F104" s="27">
-        <v>2911</v>
+        <v>3420</v>
       </c>
       <c r="G104" s="27">
-        <v>9498</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105"/>
+      <c r="A105" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E105" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F105" s="27">
-        <v>2911</v>
+        <v>5313</v>
       </c>
       <c r="G105" s="27">
-        <v>3630</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106"/>
+      <c r="A106" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E106" s="27" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F106" s="27">
-        <v>3631</v>
+        <v>5475</v>
       </c>
       <c r="G106" s="27">
-        <v>5514</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107"/>
+      <c r="A107" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E107" s="27" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F107" s="27">
-        <v>5515</v>
+        <v>6258</v>
       </c>
       <c r="G107" s="27">
-        <v>5637</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108"/>
+      <c r="A108" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E108" s="27" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F108" s="27">
-        <v>5638</v>
+        <v>7602</v>
       </c>
       <c r="G108" s="27">
-        <v>6423</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>26</v>
+      <c r="A109" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F109" s="27">
-        <v>6424</v>
+        <v>9378</v>
       </c>
       <c r="G109" s="27">
-        <v>7797</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8054,13 +8201,13 @@
       </c>
       <c r="D110"/>
       <c r="E110" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F110" s="27">
-        <v>7798</v>
+        <v>1</v>
       </c>
       <c r="G110" s="27">
-        <v>9498</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8075,491 +8222,491 @@
       </c>
       <c r="D111"/>
       <c r="E111" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="27">
+        <v>1</v>
+      </c>
+      <c r="G111" s="27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="27">
+        <v>328</v>
+      </c>
+      <c r="G112" s="27">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="27">
+        <v>328</v>
+      </c>
+      <c r="G113" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" s="27">
+        <v>328</v>
+      </c>
+      <c r="G114" s="27">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" s="27">
+        <v>565</v>
+      </c>
+      <c r="G115" s="27">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" s="27">
+        <v>1138</v>
+      </c>
+      <c r="G116" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F117" s="27">
+        <v>2200</v>
+      </c>
+      <c r="G117" s="27">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F118" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G118" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G119" s="27">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="27">
+        <v>3631</v>
+      </c>
+      <c r="G120" s="27">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F121" s="27">
+        <v>5515</v>
+      </c>
+      <c r="G121" s="27">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="27">
+        <v>5638</v>
+      </c>
+      <c r="G122" s="27">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G123" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G124" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F125" s="27">
         <v>9502</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G125" s="27">
         <v>9867</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
         <v>54</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B126" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C126" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D126" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E126" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F126" s="27">
         <v>1</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G126" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
         <v>54</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B127" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C127" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D127" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E127" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="27">
+      <c r="F127" s="27">
         <v>1</v>
       </c>
-      <c r="G113" s="27">
+      <c r="G127" s="27">
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
         <v>54</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B128" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C128" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D128" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E128" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F114" s="27">
+      <c r="F128" s="27">
         <v>351</v>
       </c>
-      <c r="G114" s="27">
+      <c r="G128" s="27">
         <v>18068</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
         <v>54</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B129" t="s">
         <v>63</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C129" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D129" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E129" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="27">
+      <c r="F129" s="27">
         <v>18069</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G129" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="32" t="s">
+    <row r="130" spans="1:7">
+      <c r="A130" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B130" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C130" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D130" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E130" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F130" s="27">
         <v>1</v>
       </c>
-      <c r="G116" s="27">
+      <c r="G130" s="27">
         <v>18554</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="34" t="s">
+    <row r="131" spans="1:7">
+      <c r="A131" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B131" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C131" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D131" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E131" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="27">
+      <c r="F131" s="27">
         <v>1</v>
       </c>
-      <c r="G117" s="27">
+      <c r="G131" s="27">
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="34" t="s">
+    <row r="132" spans="1:7">
+      <c r="A132" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B132" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C132" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D132" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E132" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F132" s="27">
         <v>200</v>
       </c>
-      <c r="G118" s="27">
+      <c r="G132" s="27">
         <v>17905</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="34" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B133" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C133" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D133" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E133" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="27">
+      <c r="F133" s="27">
         <v>17906</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G133" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F120" s="27">
-        <v>1</v>
-      </c>
-      <c r="G120" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="27">
-        <v>1</v>
-      </c>
-      <c r="G121" s="27">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F122" s="27">
-        <v>386</v>
-      </c>
-      <c r="G122" s="27">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F123" s="27">
-        <v>386</v>
-      </c>
-      <c r="G123" s="27">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B124" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F124" s="27">
-        <v>386</v>
-      </c>
-      <c r="G124" s="27">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F125" s="27">
-        <v>890</v>
-      </c>
-      <c r="G125" s="27">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" s="27">
-        <v>1196</v>
-      </c>
-      <c r="G126" s="27">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F127" s="27">
-        <v>1877</v>
-      </c>
-      <c r="G127" s="27">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F128" s="27">
-        <v>2462</v>
-      </c>
-      <c r="G128" s="27">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" s="27">
-        <v>3584</v>
-      </c>
-      <c r="G129" s="27">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="27">
-        <v>3794</v>
-      </c>
-      <c r="G130" s="27">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F131" s="27">
-        <v>7472</v>
-      </c>
-      <c r="G131" s="27">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F132" s="27">
-        <v>7664</v>
-      </c>
-      <c r="G132" s="27">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" s="27">
-        <v>8705</v>
-      </c>
-      <c r="G133" s="27">
-        <v>10192</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8574,13 +8721,13 @@
       </c>
       <c r="D134" s="27"/>
       <c r="E134" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F134" s="27">
-        <v>10193</v>
+        <v>1</v>
       </c>
       <c r="G134" s="27">
-        <v>12349</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8595,310 +8742,310 @@
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F135" s="27">
-        <v>12360</v>
+        <v>1</v>
       </c>
       <c r="G135" s="27">
-        <v>12573</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>57</v>
+      <c r="A136" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D136" s="27"/>
       <c r="E136" s="27" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F136" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G136" s="27">
-        <v>10053</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>57</v>
+      <c r="A137" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="27" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F137" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G137" s="27">
-        <v>10053</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>57</v>
+      <c r="A138" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D138" s="27"/>
       <c r="E138" s="27" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F138" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G138" s="27">
-        <v>2358</v>
+        <v>889</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>57</v>
+      <c r="A139" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F139" s="27">
-        <v>1</v>
+        <v>890</v>
       </c>
       <c r="G139" s="27">
-        <v>345</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>57</v>
+      <c r="A140" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="27" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F140" s="27">
-        <v>346</v>
+        <v>1196</v>
       </c>
       <c r="G140" s="27">
-        <v>852</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>57</v>
+      <c r="A141" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F141" s="27">
-        <v>655</v>
+        <v>1877</v>
       </c>
       <c r="G141" s="27">
-        <v>852</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>57</v>
+      <c r="A142" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F142" s="27">
-        <v>853</v>
+        <v>2462</v>
       </c>
       <c r="G142" s="27">
-        <v>2358</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>57</v>
+      <c r="A143" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F143" s="27">
-        <v>2359</v>
+        <v>3584</v>
       </c>
       <c r="G143" s="27">
-        <v>10050</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>57</v>
+      <c r="A144" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D144" s="27"/>
       <c r="E144" s="27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F144" s="27">
-        <v>2359</v>
+        <v>3794</v>
       </c>
       <c r="G144" s="27">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>57</v>
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D145" s="27"/>
       <c r="E145" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F145" s="27">
-        <v>3391</v>
+        <v>7472</v>
       </c>
       <c r="G145" s="27">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>57</v>
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F146" s="27">
-        <v>3979</v>
+        <v>7664</v>
       </c>
       <c r="G146" s="27">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>57</v>
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F147" s="27">
-        <v>4432</v>
+        <v>8705</v>
       </c>
       <c r="G147" s="27">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>57</v>
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F148" s="27">
-        <v>6304</v>
+        <v>10193</v>
       </c>
       <c r="G148" s="27">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>57</v>
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F149" s="27">
-        <v>6688</v>
+        <v>12360</v>
       </c>
       <c r="G149" s="27">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="27" t="s">
         <v>52</v>
       </c>
@@ -8910,16 +9057,16 @@
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F150" s="27">
-        <v>6763</v>
+        <v>1</v>
       </c>
       <c r="G150" s="27">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="27" t="s">
         <v>52</v>
       </c>
@@ -8931,182 +9078,451 @@
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151" s="27">
+        <v>1</v>
+      </c>
+      <c r="G151" s="27">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" s="27">
+        <v>1</v>
+      </c>
+      <c r="G152" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F153" s="27">
+        <v>1</v>
+      </c>
+      <c r="G153" s="27">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" s="27">
+        <v>346</v>
+      </c>
+      <c r="G154" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F155" s="27">
+        <v>655</v>
+      </c>
+      <c r="G155" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F156" s="27">
+        <v>853</v>
+      </c>
+      <c r="G156" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F157" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G157" s="27">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G158" s="27">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F159" s="27">
+        <v>3391</v>
+      </c>
+      <c r="G159" s="27">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F160" s="27">
+        <v>3979</v>
+      </c>
+      <c r="G160" s="27">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="27">
+        <v>4432</v>
+      </c>
+      <c r="G161" s="27">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="27">
+        <v>6304</v>
+      </c>
+      <c r="G162" s="27">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G163" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F164" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G164" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="27">
+      <c r="F165" s="27">
         <v>7558</v>
       </c>
-      <c r="G151" s="27">
+      <c r="G165" s="27">
         <v>10050</v>
       </c>
-      <c r="H151" s="25"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="27" t="s">
+      <c r="H165" s="25"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B152" s="27" t="s">
+      <c r="B166" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C166" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D152" s="27" t="s">
+      <c r="D166" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E152" s="27" t="s">
+      <c r="E166" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="27">
+      <c r="F166" s="27">
         <v>105</v>
       </c>
-      <c r="G152" s="27">
+      <c r="G166" s="27">
         <v>2849</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
         <v>113</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B167" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C167" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D167" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E153" s="27" t="s">
+      <c r="E167" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F153" s="27">
+      <c r="F167" s="27">
         <v>117</v>
       </c>
-      <c r="G153" s="27">
+      <c r="G167" s="27">
         <v>2543</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="27" t="s">
+    <row r="168" spans="1:8">
+      <c r="A168" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B168" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C168" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D154" s="27" t="s">
+      <c r="D168" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E154" s="27" t="s">
+      <c r="E168" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F154" s="27">
+      <c r="F168" s="27">
+        <v>105</v>
+      </c>
+      <c r="G168" s="27">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D169" t="s">
+        <v>112</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F169" s="27">
+        <v>117</v>
+      </c>
+      <c r="G169" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" t="s">
+        <v>109</v>
+      </c>
+      <c r="D170" t="s">
+        <v>112</v>
+      </c>
+      <c r="E170" t="s">
+        <v>83</v>
+      </c>
+      <c r="F170">
         <v>1</v>
       </c>
-      <c r="G154" s="27">
+      <c r="G170">
         <v>3114</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
         <v>113</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="B171" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C171" t="s">
         <v>109</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D171" t="s">
         <v>112</v>
       </c>
-      <c r="E155" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F155" s="27">
+      <c r="E171" t="s">
+        <v>83</v>
+      </c>
+      <c r="F171">
         <v>1</v>
       </c>
-      <c r="G155" s="27">
+      <c r="G171">
         <v>2824</v>
       </c>
-    </row>
-    <row r="193" spans="2:4">
-      <c r="B193" s="1"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="2:4">
-      <c r="B194" s="1"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="2:4">
-      <c r="B195" s="1"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="2:4">
-      <c r="B196" s="1"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="2:4">
-      <c r="B197" s="1"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="2:4">
-      <c r="B198" s="1"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="2:4">
-      <c r="B199" s="1"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="2:4">
-      <c r="B200" s="1"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="2:4">
-      <c r="B201" s="1"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="1"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="B203" s="1"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" s="1"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="1"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="1"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" s="1"/>
@@ -9155,6 +9571,8 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" s="1"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
     </row>
     <row r="218" spans="2:4">
       <c r="B218" s="1"/>
@@ -9191,178 +9609,249 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="907" spans="5:5">
-      <c r="E907" s="1"/>
-    </row>
-    <row r="1043" spans="2:2">
-      <c r="B1043" s="1"/>
-    </row>
-    <row r="1044" spans="2:2">
-      <c r="B1044" s="1"/>
-    </row>
-    <row r="1169" spans="2:2">
-      <c r="B1169" s="1"/>
-    </row>
-    <row r="1170" spans="2:2">
-      <c r="B1170" s="1"/>
-    </row>
-    <row r="1171" spans="2:2">
-      <c r="B1171" s="1"/>
-    </row>
-    <row r="1172" spans="2:2">
-      <c r="B1172" s="1"/>
-    </row>
-    <row r="1173" spans="2:2">
-      <c r="B1173" s="1"/>
-    </row>
-    <row r="1174" spans="2:2">
-      <c r="B1174" s="1"/>
-    </row>
-    <row r="1219" spans="2:6">
-      <c r="E1219" s="1"/>
-      <c r="F1219" s="1"/>
-    </row>
-    <row r="1220" spans="2:6">
-      <c r="E1220" s="1"/>
-      <c r="F1220" s="1"/>
-    </row>
-    <row r="1221" spans="2:6">
-      <c r="E1221" s="1"/>
-      <c r="F1221" s="1"/>
-    </row>
-    <row r="1223" spans="2:6">
-      <c r="B1223" s="1"/>
-    </row>
-    <row r="1224" spans="2:6">
-      <c r="B1224" s="1"/>
-    </row>
-    <row r="1225" spans="2:6">
-      <c r="B1225" s="1"/>
-    </row>
-    <row r="1226" spans="2:6">
-      <c r="B1226" s="1"/>
-    </row>
-    <row r="1227" spans="2:6">
-      <c r="B1227" s="1"/>
-    </row>
-    <row r="1246" spans="2:2">
-      <c r="B1246" s="1"/>
-    </row>
-    <row r="1247" spans="2:2">
-      <c r="B1247" s="1"/>
-    </row>
-    <row r="1248" spans="2:2">
-      <c r="B1248" s="1"/>
-    </row>
-    <row r="1249" spans="2:2">
-      <c r="B1249" s="1"/>
-    </row>
-    <row r="1250" spans="2:2">
-      <c r="B1250" s="1"/>
-    </row>
-    <row r="1251" spans="2:2">
-      <c r="B1251" s="1"/>
-    </row>
-    <row r="1252" spans="2:2">
-      <c r="B1252" s="1"/>
-    </row>
-    <row r="1254" spans="2:2">
-      <c r="B1254" s="1"/>
-    </row>
-    <row r="1255" spans="2:2">
-      <c r="B1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:2">
-      <c r="B1256" s="1"/>
-    </row>
-    <row r="1257" spans="2:2">
-      <c r="B1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:2">
-      <c r="B1258" s="1"/>
-    </row>
-    <row r="1259" spans="2:2">
-      <c r="B1259" s="1"/>
-    </row>
-    <row r="1311" spans="2:2">
-      <c r="B1311" s="1"/>
-    </row>
-    <row r="1312" spans="2:2">
-      <c r="B1312" s="1"/>
-    </row>
-    <row r="1313" spans="2:2">
-      <c r="B1313" s="1"/>
-    </row>
-    <row r="1314" spans="2:2">
-      <c r="B1314" s="1"/>
-    </row>
-    <row r="1316" spans="2:2">
-      <c r="B1316" s="1"/>
-    </row>
-    <row r="1317" spans="2:2">
-      <c r="B1317" s="1"/>
-    </row>
-    <row r="1318" spans="2:2">
-      <c r="B1318" s="1"/>
-    </row>
-    <row r="1319" spans="2:2">
-      <c r="B1319" s="1"/>
-    </row>
-    <row r="1354" spans="2:2">
-      <c r="B1354" s="1"/>
-    </row>
-    <row r="1355" spans="2:2">
-      <c r="B1355" s="1"/>
-    </row>
-    <row r="1356" spans="2:2">
-      <c r="B1356" s="1"/>
-    </row>
-    <row r="1357" spans="2:2">
-      <c r="B1357" s="1"/>
-    </row>
-    <row r="1358" spans="2:2">
-      <c r="B1358" s="1"/>
-    </row>
-    <row r="1359" spans="2:2">
-      <c r="B1359" s="1"/>
-    </row>
-    <row r="1401" spans="3:6">
-      <c r="E1401" s="1"/>
-      <c r="F1401" s="1"/>
-    </row>
-    <row r="1402" spans="3:6">
-      <c r="C1402" s="6"/>
-      <c r="D1402" s="6"/>
-      <c r="E1402" s="1"/>
-      <c r="F1402" s="1"/>
-    </row>
-    <row r="1403" spans="3:6">
-      <c r="C1403" s="6"/>
-      <c r="D1403" s="6"/>
-      <c r="E1403" s="1"/>
-      <c r="F1403" s="1"/>
-    </row>
-    <row r="1404" spans="3:6">
-      <c r="C1404" s="6"/>
-      <c r="D1404" s="6"/>
-      <c r="E1404" s="1"/>
-      <c r="F1404" s="1"/>
-    </row>
-    <row r="1405" spans="3:6">
-      <c r="E1405" s="1"/>
-      <c r="F1405" s="1"/>
-    </row>
-    <row r="1468" spans="2:2">
-      <c r="B1468" s="1"/>
-    </row>
-    <row r="1469" spans="2:2">
-      <c r="B1469" s="1"/>
-    </row>
-    <row r="1470" spans="2:2">
-      <c r="B1470" s="1"/>
-    </row>
-    <row r="1471" spans="2:2">
-      <c r="B1471" s="1"/>
+    <row r="225" spans="2:4">
+      <c r="B225" s="1"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="1"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" s="1"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="1"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="1"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" s="1"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" s="1"/>
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" s="1"/>
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" s="1"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" s="1"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" s="1"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" s="1"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" s="1"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" s="1"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="D239" s="5"/>
+    </row>
+    <row r="921" spans="5:5">
+      <c r="E921" s="1"/>
+    </row>
+    <row r="1057" spans="2:2">
+      <c r="B1057" s="1"/>
+    </row>
+    <row r="1058" spans="2:2">
+      <c r="B1058" s="1"/>
+    </row>
+    <row r="1183" spans="2:2">
+      <c r="B1183" s="1"/>
+    </row>
+    <row r="1184" spans="2:2">
+      <c r="B1184" s="1"/>
+    </row>
+    <row r="1185" spans="2:2">
+      <c r="B1185" s="1"/>
+    </row>
+    <row r="1186" spans="2:2">
+      <c r="B1186" s="1"/>
+    </row>
+    <row r="1187" spans="2:2">
+      <c r="B1187" s="1"/>
+    </row>
+    <row r="1188" spans="2:2">
+      <c r="B1188" s="1"/>
+    </row>
+    <row r="1233" spans="2:6">
+      <c r="E1233" s="1"/>
+      <c r="F1233" s="1"/>
+    </row>
+    <row r="1234" spans="2:6">
+      <c r="E1234" s="1"/>
+      <c r="F1234" s="1"/>
+    </row>
+    <row r="1235" spans="2:6">
+      <c r="E1235" s="1"/>
+      <c r="F1235" s="1"/>
+    </row>
+    <row r="1237" spans="2:6">
+      <c r="B1237" s="1"/>
+    </row>
+    <row r="1238" spans="2:6">
+      <c r="B1238" s="1"/>
+    </row>
+    <row r="1239" spans="2:6">
+      <c r="B1239" s="1"/>
+    </row>
+    <row r="1240" spans="2:6">
+      <c r="B1240" s="1"/>
+    </row>
+    <row r="1241" spans="2:6">
+      <c r="B1241" s="1"/>
+    </row>
+    <row r="1260" spans="2:2">
+      <c r="B1260" s="1"/>
+    </row>
+    <row r="1261" spans="2:2">
+      <c r="B1261" s="1"/>
+    </row>
+    <row r="1262" spans="2:2">
+      <c r="B1262" s="1"/>
+    </row>
+    <row r="1263" spans="2:2">
+      <c r="B1263" s="1"/>
+    </row>
+    <row r="1264" spans="2:2">
+      <c r="B1264" s="1"/>
+    </row>
+    <row r="1265" spans="2:2">
+      <c r="B1265" s="1"/>
+    </row>
+    <row r="1266" spans="2:2">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1268" spans="2:2">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1269" spans="2:2">
+      <c r="B1269" s="1"/>
+    </row>
+    <row r="1270" spans="2:2">
+      <c r="B1270" s="1"/>
+    </row>
+    <row r="1271" spans="2:2">
+      <c r="B1271" s="1"/>
+    </row>
+    <row r="1272" spans="2:2">
+      <c r="B1272" s="1"/>
+    </row>
+    <row r="1273" spans="2:2">
+      <c r="B1273" s="1"/>
+    </row>
+    <row r="1325" spans="2:2">
+      <c r="B1325" s="1"/>
+    </row>
+    <row r="1326" spans="2:2">
+      <c r="B1326" s="1"/>
+    </row>
+    <row r="1327" spans="2:2">
+      <c r="B1327" s="1"/>
+    </row>
+    <row r="1328" spans="2:2">
+      <c r="B1328" s="1"/>
+    </row>
+    <row r="1330" spans="2:2">
+      <c r="B1330" s="1"/>
+    </row>
+    <row r="1331" spans="2:2">
+      <c r="B1331" s="1"/>
+    </row>
+    <row r="1332" spans="2:2">
+      <c r="B1332" s="1"/>
+    </row>
+    <row r="1333" spans="2:2">
+      <c r="B1333" s="1"/>
+    </row>
+    <row r="1368" spans="2:2">
+      <c r="B1368" s="1"/>
+    </row>
+    <row r="1369" spans="2:2">
+      <c r="B1369" s="1"/>
+    </row>
+    <row r="1370" spans="2:2">
+      <c r="B1370" s="1"/>
+    </row>
+    <row r="1371" spans="2:2">
+      <c r="B1371" s="1"/>
+    </row>
+    <row r="1372" spans="2:2">
+      <c r="B1372" s="1"/>
+    </row>
+    <row r="1373" spans="2:2">
+      <c r="B1373" s="1"/>
+    </row>
+    <row r="1415" spans="3:6">
+      <c r="E1415" s="1"/>
+      <c r="F1415" s="1"/>
+    </row>
+    <row r="1416" spans="3:6">
+      <c r="C1416" s="6"/>
+      <c r="E1416" s="1"/>
+      <c r="F1416" s="1"/>
+    </row>
+    <row r="1417" spans="3:6">
+      <c r="C1417" s="6"/>
+      <c r="D1417" s="6"/>
+      <c r="E1417" s="1"/>
+      <c r="F1417" s="1"/>
+    </row>
+    <row r="1418" spans="3:6">
+      <c r="C1418" s="6"/>
+      <c r="D1418" s="6"/>
+      <c r="E1418" s="1"/>
+      <c r="F1418" s="1"/>
+    </row>
+    <row r="1419" spans="3:6">
+      <c r="D1419" s="6"/>
+      <c r="E1419" s="1"/>
+      <c r="F1419" s="1"/>
+    </row>
+    <row r="1482" spans="2:2">
+      <c r="B1482" s="1"/>
+    </row>
+    <row r="1483" spans="2:2">
+      <c r="B1483" s="1"/>
+    </row>
+    <row r="1484" spans="2:2">
+      <c r="B1484" s="1"/>
+    </row>
+    <row r="1485" spans="2:2">
+      <c r="B1485" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G1456">

--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="115">
   <si>
     <t>featureName</t>
   </si>
@@ -439,7 +439,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +566,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18FFA5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -576,7 +588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2343">
+  <cellStyleXfs count="2403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2920,8 +2932,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2985,8 +3057,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2343">
+  <cellStyles count="2403">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4159,6 +4238,36 @@
     <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5329,6 +5438,36 @@
     <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5666,10 +5805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1485"/>
+  <dimension ref="A1:H1499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6202,7 +6341,7 @@
       <c r="D23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="26">
@@ -6225,7 +6364,7 @@
       <c r="D24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="26">
@@ -6248,7 +6387,7 @@
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="26">
@@ -6260,324 +6399,324 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28">
-        <v>10735</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="26">
+        <v>16</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2385</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="28">
-        <v>1</v>
-      </c>
-      <c r="G27" s="28">
+        <v>80</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="F27" s="26">
+        <v>16</v>
+      </c>
+      <c r="G27" s="26">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="27">
-        <v>95</v>
-      </c>
-      <c r="G28" s="27">
-        <v>10273</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="26">
+        <v>382</v>
+      </c>
+      <c r="G28" s="26">
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="27">
+        <v>80</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="27">
-        <v>2419</v>
+      <c r="F29" s="26">
+        <v>889</v>
+      </c>
+      <c r="G29" s="26">
+        <v>2385</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="27">
-        <v>95</v>
-      </c>
-      <c r="G30" s="27">
-        <v>436</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2386</v>
+      </c>
+      <c r="G30" s="26">
+        <v>3444</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="27">
-        <v>437</v>
-      </c>
-      <c r="G31" s="27">
-        <v>934</v>
+        <v>80</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="26">
+        <v>3445</v>
+      </c>
+      <c r="G31" s="26">
+        <v>4125</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="27">
-        <v>935</v>
-      </c>
-      <c r="G32" s="27">
-        <v>2419</v>
+        <v>80</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="26">
+        <v>4126</v>
+      </c>
+      <c r="G32" s="26">
+        <v>4518</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="27">
-        <v>2420</v>
-      </c>
-      <c r="G33" s="27">
-        <v>10270</v>
+        <v>80</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="26">
+        <v>4519</v>
+      </c>
+      <c r="G33" s="26">
+        <v>6381</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="27">
-        <v>2420</v>
-      </c>
-      <c r="G34" s="27">
-        <v>3475</v>
+        <v>80</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="26">
+        <v>6382</v>
+      </c>
+      <c r="G34" s="26">
+        <v>6759</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="27">
-        <v>3476</v>
-      </c>
-      <c r="G35" s="27">
-        <v>4129</v>
+        <v>80</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="26">
+        <v>6760</v>
+      </c>
+      <c r="G35" s="26">
+        <v>6828</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="27">
-        <v>4130</v>
-      </c>
-      <c r="G36" s="27">
-        <v>4519</v>
+        <v>80</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="26">
+        <v>6829</v>
+      </c>
+      <c r="G36" s="26">
+        <v>7593</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="27">
-        <v>4520</v>
-      </c>
-      <c r="G37" s="27">
-        <v>6376</v>
+        <v>80</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="26">
+        <v>7594</v>
+      </c>
+      <c r="G37" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="27">
-        <v>6377</v>
-      </c>
-      <c r="G38" s="27">
-        <v>6757</v>
+      <c r="A38" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="26">
+        <v>2386</v>
+      </c>
+      <c r="G38" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="27">
-        <v>6758</v>
-      </c>
-      <c r="G39" s="27">
-        <v>6826</v>
+        <v>80</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="26">
+        <v>16</v>
+      </c>
+      <c r="G39" s="26">
+        <v>10320</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6594,13 +6733,13 @@
         <v>39</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="27">
-        <v>7574</v>
-      </c>
-      <c r="G40" s="27">
-        <v>10270</v>
+        <v>83</v>
+      </c>
+      <c r="F40" s="28">
+        <v>1</v>
+      </c>
+      <c r="G40" s="28">
+        <v>10735</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6617,335 +6756,335 @@
         <v>39</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="27">
-        <v>10274</v>
-      </c>
-      <c r="G41" s="27">
-        <v>10735</v>
+        <v>15</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="27">
+        <v>95</v>
+      </c>
+      <c r="G42" s="27">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="27">
+        <v>95</v>
+      </c>
+      <c r="G43" s="27">
+        <v>2419</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="7">
-        <v>119</v>
-      </c>
-      <c r="G44" s="7">
-        <v>10354</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="27">
+        <v>95</v>
+      </c>
+      <c r="G44" s="27">
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="7">
-        <v>119</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2452</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="27">
+        <v>437</v>
+      </c>
+      <c r="G45" s="27">
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="7">
-        <v>119</v>
-      </c>
-      <c r="G46" s="7">
-        <v>481</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="27">
+        <v>935</v>
+      </c>
+      <c r="G46" s="27">
+        <v>2419</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="7">
-        <v>482</v>
-      </c>
-      <c r="G47" s="7">
-        <v>973</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="27">
+        <v>2420</v>
+      </c>
+      <c r="G47" s="27">
+        <v>10270</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="7">
-        <v>974</v>
-      </c>
-      <c r="G48" s="7">
-        <v>2452</v>
+        <v>60</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="27">
+        <v>2420</v>
+      </c>
+      <c r="G48" s="27">
+        <v>3475</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G49" s="7">
-        <v>10351</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="27">
+        <v>3476</v>
+      </c>
+      <c r="G49" s="27">
+        <v>4129</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G50" s="7">
-        <v>3508</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="27">
+        <v>4130</v>
+      </c>
+      <c r="G50" s="27">
+        <v>4519</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="7">
-        <v>3509</v>
-      </c>
-      <c r="G51" s="7">
-        <v>4180</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="27">
+        <v>4520</v>
+      </c>
+      <c r="G51" s="27">
+        <v>6376</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="7">
-        <v>4181</v>
-      </c>
-      <c r="G52" s="7">
-        <v>4570</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="27">
+        <v>6377</v>
+      </c>
+      <c r="G52" s="27">
+        <v>6757</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4571</v>
-      </c>
-      <c r="G53" s="7">
-        <v>6439</v>
+        <v>60</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="27">
+        <v>6758</v>
+      </c>
+      <c r="G53" s="27">
+        <v>6826</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="7">
-        <v>6440</v>
-      </c>
-      <c r="G54" s="7">
-        <v>6817</v>
+        <v>60</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="27">
+        <v>7574</v>
+      </c>
+      <c r="G54" s="27">
+        <v>10270</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="7">
-        <v>6818</v>
-      </c>
-      <c r="G55" s="7">
-        <v>6886</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="27">
+        <v>10274</v>
+      </c>
+      <c r="G55" s="27">
+        <v>10735</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6962,16 +7101,16 @@
         <v>41</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F56" s="7">
-        <v>6887</v>
+        <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>30</v>
       </c>
@@ -6985,13 +7124,13 @@
         <v>41</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F57" s="7">
-        <v>7637</v>
+        <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>10351</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7008,338 +7147,338 @@
         <v>41</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="7">
+        <v>119</v>
+      </c>
+      <c r="G58" s="7">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="7">
+        <v>119</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="7">
+        <v>119</v>
+      </c>
+      <c r="G60" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="7">
+        <v>482</v>
+      </c>
+      <c r="G61" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="7">
+        <v>974</v>
+      </c>
+      <c r="G62" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G63" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G64" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="7">
+        <v>3509</v>
+      </c>
+      <c r="G65" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="7">
+        <v>4181</v>
+      </c>
+      <c r="G66" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="7">
+        <v>4571</v>
+      </c>
+      <c r="G67" s="7">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G68" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G69" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G70" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G71" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F72" s="7">
         <v>10355</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G72" s="7">
         <v>10862</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="G59" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="9">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="9">
-        <v>331</v>
-      </c>
-      <c r="G63" s="9">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="9">
-        <v>589</v>
-      </c>
-      <c r="G64" s="9">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="9">
-        <v>814</v>
-      </c>
-      <c r="G65" s="9">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9">
-        <v>2269</v>
-      </c>
-      <c r="G66" s="9">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" s="9">
-        <v>3328</v>
-      </c>
-      <c r="G67" s="9">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="9">
-        <v>4003</v>
-      </c>
-      <c r="G68" s="9">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="9">
-        <v>4393</v>
-      </c>
-      <c r="G69" s="9">
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="9">
-        <v>6241</v>
-      </c>
-      <c r="G70" s="9">
-        <v>6597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="9">
-        <v>6598</v>
-      </c>
-      <c r="G71" s="9">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="9">
-        <v>6667</v>
-      </c>
-      <c r="G72" s="9">
-        <v>7422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="37" t="s">
         <v>48</v>
       </c>
@@ -7353,16 +7492,16 @@
         <v>56</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F73" s="9">
-        <v>7423</v>
+        <v>1</v>
       </c>
       <c r="G73" s="9">
-        <v>10113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="37" t="s">
         <v>48</v>
       </c>
@@ -7376,385 +7515,385 @@
         <v>56</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F74" s="9">
-        <v>2269</v>
+        <v>1</v>
       </c>
       <c r="G74" s="9">
         <v>10116</v>
       </c>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="9">
+        <v>331</v>
+      </c>
+      <c r="G77" s="9">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="9">
+        <v>589</v>
+      </c>
+      <c r="G78" s="9">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="9">
+        <v>814</v>
+      </c>
+      <c r="G79" s="9">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G80" s="9">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="9">
+        <v>3328</v>
+      </c>
+      <c r="G81" s="9">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="9">
+        <v>4003</v>
+      </c>
+      <c r="G82" s="9">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4393</v>
+      </c>
+      <c r="G83" s="9">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="9">
+        <v>6241</v>
+      </c>
+      <c r="G84" s="9">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="9">
+        <v>6598</v>
+      </c>
+      <c r="G85" s="9">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="9">
+        <v>6667</v>
+      </c>
+      <c r="G86" s="9">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="9">
+        <v>7423</v>
+      </c>
+      <c r="G87" s="9">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G88" s="9">
+        <v>10116</v>
+      </c>
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B89" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="24" t="s">
+      <c r="C89" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E89" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F89" s="1">
         <v>1</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G89" s="1">
         <v>10242</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="37" t="s">
+    <row r="90" spans="1:8">
+      <c r="A90" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B90" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="24" t="s">
+      <c r="C90" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E90" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F90" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G90" s="1">
         <v>10242</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="27">
-        <v>1</v>
-      </c>
-      <c r="G77" s="27">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="27">
-        <v>1</v>
-      </c>
-      <c r="G78" s="27">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="27">
-        <v>112</v>
-      </c>
-      <c r="G79" s="27">
-        <v>10359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="27">
-        <v>112</v>
-      </c>
-      <c r="G80" s="27">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F81" s="27">
-        <v>112</v>
-      </c>
-      <c r="G81" s="27">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" s="27">
-        <v>442</v>
-      </c>
-      <c r="G82" s="27">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="27">
-        <v>946</v>
-      </c>
-      <c r="G83" s="27">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G84" s="27">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G85" s="27">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="27">
-        <v>3496</v>
-      </c>
-      <c r="G86" s="27">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F87" s="27">
-        <v>4186</v>
-      </c>
-      <c r="G87" s="27">
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="27">
-        <v>4579</v>
-      </c>
-      <c r="G88" s="27">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F89" s="27">
-        <v>6445</v>
-      </c>
-      <c r="G89" s="27">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="27">
-        <v>6823</v>
-      </c>
-      <c r="G90" s="27">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="36" t="s">
         <v>33</v>
       </c>
@@ -7768,16 +7907,16 @@
         <v>43</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F91" s="27">
-        <v>6892</v>
+        <v>1</v>
       </c>
       <c r="G91" s="27">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="36" t="s">
         <v>33</v>
       </c>
@@ -7791,16 +7930,16 @@
         <v>43</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F92" s="27">
-        <v>7648</v>
+        <v>1</v>
       </c>
       <c r="G92" s="27">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="36" t="s">
         <v>33</v>
       </c>
@@ -7814,335 +7953,335 @@
         <v>43</v>
       </c>
       <c r="E93" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" s="27">
+        <v>112</v>
+      </c>
+      <c r="G93" s="27">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="27">
+        <v>112</v>
+      </c>
+      <c r="G94" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="27">
+        <v>112</v>
+      </c>
+      <c r="G95" s="27">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="27">
+        <v>442</v>
+      </c>
+      <c r="G96" s="27">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="27">
+        <v>946</v>
+      </c>
+      <c r="G97" s="27">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G98" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="27">
+        <v>2437</v>
+      </c>
+      <c r="G99" s="27">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="27">
+        <v>3496</v>
+      </c>
+      <c r="G100" s="27">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" s="27">
+        <v>4186</v>
+      </c>
+      <c r="G101" s="27">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="27">
+        <v>4579</v>
+      </c>
+      <c r="G102" s="27">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="27">
+        <v>6445</v>
+      </c>
+      <c r="G103" s="27">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="27">
+        <v>6823</v>
+      </c>
+      <c r="G104" s="27">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G105" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G106" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F107" s="27">
         <v>10357</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G107" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="27">
-        <v>1</v>
-      </c>
-      <c r="G94" s="27">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="27">
-        <v>1</v>
-      </c>
-      <c r="G95" s="27">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F96" s="27">
-        <v>342</v>
-      </c>
-      <c r="G96" s="27">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F97" s="27">
-        <v>342</v>
-      </c>
-      <c r="G97" s="27">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" s="27">
-        <v>342</v>
-      </c>
-      <c r="G98" s="27">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F99" s="27">
-        <v>915</v>
-      </c>
-      <c r="G99" s="27">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" s="27">
-        <v>1491</v>
-      </c>
-      <c r="G100" s="27">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F101" s="27">
-        <v>2580</v>
-      </c>
-      <c r="G101" s="27">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F102" s="27">
-        <v>2580</v>
-      </c>
-      <c r="G102" s="27">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="27">
-        <v>2769</v>
-      </c>
-      <c r="G103" s="27">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="27">
-        <v>3420</v>
-      </c>
-      <c r="G104" s="27">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F105" s="27">
-        <v>5313</v>
-      </c>
-      <c r="G105" s="27">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="27">
-        <v>5475</v>
-      </c>
-      <c r="G106" s="27">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" s="27">
-        <v>6258</v>
-      </c>
-      <c r="G107" s="27">
-        <v>7601</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8159,13 +8298,13 @@
         <v>107</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F108" s="27">
-        <v>7602</v>
+        <v>1</v>
       </c>
       <c r="G108" s="27">
-        <v>9374</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8178,309 +8317,339 @@
       <c r="C109" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D109"/>
+      <c r="D109" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="E109" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="27">
+        <v>1</v>
+      </c>
+      <c r="G109" s="27">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" s="27">
+        <v>342</v>
+      </c>
+      <c r="G110" s="27">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="27">
+        <v>342</v>
+      </c>
+      <c r="G111" s="27">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="27">
+        <v>342</v>
+      </c>
+      <c r="G112" s="27">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="27">
+        <v>915</v>
+      </c>
+      <c r="G113" s="27">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="27">
+        <v>1491</v>
+      </c>
+      <c r="G114" s="27">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" s="27">
+        <v>2580</v>
+      </c>
+      <c r="G115" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="27">
+        <v>2580</v>
+      </c>
+      <c r="G116" s="27">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F117" s="27">
+        <v>2769</v>
+      </c>
+      <c r="G117" s="27">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="27">
+        <v>3420</v>
+      </c>
+      <c r="G118" s="27">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F119" s="27">
+        <v>5313</v>
+      </c>
+      <c r="G119" s="27">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" s="27">
+        <v>5475</v>
+      </c>
+      <c r="G120" s="27">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="27">
+        <v>6258</v>
+      </c>
+      <c r="G121" s="27">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G122" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F123" s="27">
         <v>9378</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G123" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110"/>
-      <c r="E110" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F110" s="27">
-        <v>1</v>
-      </c>
-      <c r="G110" s="27">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="27">
-        <v>1</v>
-      </c>
-      <c r="G111" s="27">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F112" s="27">
-        <v>328</v>
-      </c>
-      <c r="G112" s="27">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F113" s="27">
-        <v>328</v>
-      </c>
-      <c r="G113" s="27">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F114" s="27">
-        <v>328</v>
-      </c>
-      <c r="G114" s="27">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115"/>
-      <c r="E115" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F115" s="27">
-        <v>565</v>
-      </c>
-      <c r="G115" s="27">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F116" s="27">
-        <v>1138</v>
-      </c>
-      <c r="G116" s="27">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117"/>
-      <c r="E117" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F117" s="27">
-        <v>2200</v>
-      </c>
-      <c r="G117" s="27">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F118" s="27">
-        <v>2911</v>
-      </c>
-      <c r="G118" s="27">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F119" s="27">
-        <v>2911</v>
-      </c>
-      <c r="G119" s="27">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="27">
-        <v>3631</v>
-      </c>
-      <c r="G120" s="27">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121"/>
-      <c r="E121" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F121" s="27">
-        <v>5515</v>
-      </c>
-      <c r="G121" s="27">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F122" s="27">
-        <v>5638</v>
-      </c>
-      <c r="G122" s="27">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123"/>
-      <c r="E123" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="27">
-        <v>6424</v>
-      </c>
-      <c r="G123" s="27">
-        <v>7797</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8495,13 +8664,13 @@
       </c>
       <c r="D124"/>
       <c r="E124" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F124" s="27">
-        <v>7798</v>
+        <v>1</v>
       </c>
       <c r="G124" s="27">
-        <v>9498</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8516,491 +8685,491 @@
       </c>
       <c r="D125"/>
       <c r="E125" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="27">
+        <v>1</v>
+      </c>
+      <c r="G125" s="27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F126" s="27">
+        <v>328</v>
+      </c>
+      <c r="G126" s="27">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127" s="27">
+        <v>328</v>
+      </c>
+      <c r="G127" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F128" s="27">
+        <v>328</v>
+      </c>
+      <c r="G128" s="27">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F129" s="27">
+        <v>565</v>
+      </c>
+      <c r="G129" s="27">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="27">
+        <v>1138</v>
+      </c>
+      <c r="G130" s="27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" s="27">
+        <v>2200</v>
+      </c>
+      <c r="G131" s="27">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F132" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G132" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="27">
+        <v>2911</v>
+      </c>
+      <c r="G133" s="27">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="27">
+        <v>3631</v>
+      </c>
+      <c r="G134" s="27">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" s="27">
+        <v>5515</v>
+      </c>
+      <c r="G135" s="27">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="27">
+        <v>5638</v>
+      </c>
+      <c r="G136" s="27">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G137" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G138" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F139" s="27">
         <v>9502</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G139" s="27">
         <v>9867</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
         <v>54</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B140" t="s">
         <v>63</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C140" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D140" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E140" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F140" s="27">
         <v>1</v>
       </c>
-      <c r="G126" s="27">
+      <c r="G140" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
         <v>54</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B141" t="s">
         <v>63</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C141" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D141" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E141" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F141" s="27">
         <v>1</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G141" s="27">
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
         <v>54</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B142" t="s">
         <v>63</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C142" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D142" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E142" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F142" s="27">
         <v>351</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G142" s="27">
         <v>18068</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
         <v>54</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B143" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C143" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D143" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E129" s="27" t="s">
+      <c r="E143" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="27">
+      <c r="F143" s="27">
         <v>18069</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G143" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="32" t="s">
+    <row r="144" spans="1:7">
+      <c r="A144" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B144" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C144" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D144" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E130" s="27" t="s">
+      <c r="E144" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F144" s="27">
         <v>1</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G144" s="27">
         <v>18554</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="34" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B131" s="32" t="s">
+      <c r="B145" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C145" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D145" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E145" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F145" s="27">
         <v>1</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G145" s="27">
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="34" t="s">
+    <row r="146" spans="1:7">
+      <c r="A146" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B146" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C132" s="33" t="s">
+      <c r="C146" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D146" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E132" s="27" t="s">
+      <c r="E146" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F146" s="27">
         <v>200</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G146" s="27">
         <v>17905</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="34" t="s">
+    <row r="147" spans="1:7">
+      <c r="A147" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B147" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="33" t="s">
+      <c r="C147" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D147" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E133" s="27" t="s">
+      <c r="E147" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F147" s="27">
         <v>17906</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G147" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F134" s="27">
-        <v>1</v>
-      </c>
-      <c r="G134" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="27">
-        <v>1</v>
-      </c>
-      <c r="G135" s="27">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B136" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F136" s="27">
-        <v>386</v>
-      </c>
-      <c r="G136" s="27">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F137" s="27">
-        <v>386</v>
-      </c>
-      <c r="G137" s="27">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B138" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F138" s="27">
-        <v>386</v>
-      </c>
-      <c r="G138" s="27">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F139" s="27">
-        <v>890</v>
-      </c>
-      <c r="G139" s="27">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="27">
-        <v>1196</v>
-      </c>
-      <c r="G140" s="27">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F141" s="27">
-        <v>1877</v>
-      </c>
-      <c r="G141" s="27">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F142" s="27">
-        <v>2462</v>
-      </c>
-      <c r="G142" s="27">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F143" s="27">
-        <v>3584</v>
-      </c>
-      <c r="G143" s="27">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="27">
-        <v>3794</v>
-      </c>
-      <c r="G144" s="27">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C145" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="27">
-        <v>7472</v>
-      </c>
-      <c r="G145" s="27">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C146" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F146" s="27">
-        <v>7664</v>
-      </c>
-      <c r="G146" s="27">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="27">
-        <v>8705</v>
-      </c>
-      <c r="G147" s="27">
-        <v>10192</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9015,13 +9184,13 @@
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F148" s="27">
-        <v>10193</v>
+        <v>1</v>
       </c>
       <c r="G148" s="27">
-        <v>12349</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9036,310 +9205,310 @@
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F149" s="27">
-        <v>12360</v>
+        <v>1</v>
       </c>
       <c r="G149" s="27">
-        <v>12573</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>57</v>
+      <c r="A150" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F150" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G150" s="27">
-        <v>10053</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>57</v>
+      <c r="A151" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F151" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G151" s="27">
-        <v>10053</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>57</v>
+      <c r="A152" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D152" s="27"/>
       <c r="E152" s="27" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F152" s="27">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G152" s="27">
-        <v>2358</v>
+        <v>889</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>57</v>
+      <c r="A153" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F153" s="27">
-        <v>1</v>
+        <v>890</v>
       </c>
       <c r="G153" s="27">
-        <v>345</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>57</v>
+      <c r="A154" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F154" s="27">
-        <v>346</v>
+        <v>1196</v>
       </c>
       <c r="G154" s="27">
-        <v>852</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>57</v>
+      <c r="A155" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F155" s="27">
-        <v>655</v>
+        <v>1877</v>
       </c>
       <c r="G155" s="27">
-        <v>852</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>57</v>
+      <c r="A156" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F156" s="27">
-        <v>853</v>
+        <v>2462</v>
       </c>
       <c r="G156" s="27">
-        <v>2358</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>57</v>
+      <c r="A157" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F157" s="27">
-        <v>2359</v>
+        <v>3584</v>
       </c>
       <c r="G157" s="27">
-        <v>10050</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>57</v>
+      <c r="A158" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F158" s="27">
-        <v>2359</v>
+        <v>3794</v>
       </c>
       <c r="G158" s="27">
-        <v>3390</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>57</v>
+      <c r="A159" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F159" s="27">
-        <v>3391</v>
+        <v>7472</v>
       </c>
       <c r="G159" s="27">
-        <v>3978</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>57</v>
+      <c r="A160" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F160" s="27">
-        <v>3979</v>
+        <v>7664</v>
       </c>
       <c r="G160" s="27">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>57</v>
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F161" s="27">
-        <v>4432</v>
+        <v>8705</v>
       </c>
       <c r="G161" s="27">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>57</v>
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F162" s="27">
-        <v>6304</v>
+        <v>10193</v>
       </c>
       <c r="G162" s="27">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>57</v>
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F163" s="27">
-        <v>6688</v>
+        <v>12360</v>
       </c>
       <c r="G163" s="27">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="27" t="s">
         <v>52</v>
       </c>
@@ -9351,16 +9520,16 @@
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F164" s="27">
-        <v>6763</v>
+        <v>1</v>
       </c>
       <c r="G164" s="27">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="27" t="s">
         <v>52</v>
       </c>
@@ -9372,227 +9541,451 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F165" s="27">
+        <v>1</v>
+      </c>
+      <c r="G165" s="27">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F166" s="27">
+        <v>1</v>
+      </c>
+      <c r="G166" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="27">
+        <v>1</v>
+      </c>
+      <c r="G167" s="27">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F168" s="27">
+        <v>346</v>
+      </c>
+      <c r="G168" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F169" s="27">
+        <v>655</v>
+      </c>
+      <c r="G169" s="27">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F170" s="27">
+        <v>853</v>
+      </c>
+      <c r="G170" s="27">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F171" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G171" s="27">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="27">
+        <v>2359</v>
+      </c>
+      <c r="G172" s="27">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F173" s="27">
+        <v>3391</v>
+      </c>
+      <c r="G173" s="27">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F174" s="27">
+        <v>3979</v>
+      </c>
+      <c r="G174" s="27">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="27">
+        <v>4432</v>
+      </c>
+      <c r="G175" s="27">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="27">
+        <v>6304</v>
+      </c>
+      <c r="G176" s="27">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G177" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F178" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G178" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F165" s="27">
+      <c r="F179" s="27">
         <v>7558</v>
       </c>
-      <c r="G165" s="27">
+      <c r="G179" s="27">
         <v>10050</v>
       </c>
-      <c r="H165" s="25"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="27" t="s">
+      <c r="H179" s="25"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B180" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C180" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D166" s="27" t="s">
+      <c r="D180" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E166" s="27" t="s">
+      <c r="E180" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="27">
+      <c r="F180" s="27">
         <v>105</v>
       </c>
-      <c r="G166" s="27">
+      <c r="G180" s="27">
         <v>2849</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
         <v>113</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="B181" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C181" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D181" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E167" s="27" t="s">
+      <c r="E181" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="27">
+      <c r="F181" s="27">
         <v>117</v>
       </c>
-      <c r="G167" s="27">
+      <c r="G181" s="27">
         <v>2543</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="27" t="s">
+    <row r="182" spans="1:8">
+      <c r="A182" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="B182" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C182" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D168" s="27" t="s">
+      <c r="D182" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E168" s="27" t="s">
+      <c r="E182" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F168" s="27">
+      <c r="F182" s="27">
         <v>105</v>
       </c>
-      <c r="G168" s="27">
+      <c r="G182" s="27">
         <v>2849</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
         <v>113</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B183" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C183" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D183" t="s">
         <v>112</v>
       </c>
-      <c r="E169" s="27" t="s">
+      <c r="E183" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F169" s="27">
+      <c r="F183" s="27">
         <v>117</v>
       </c>
-      <c r="G169" s="27">
+      <c r="G183" s="27">
         <v>2543</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
         <v>108</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B184" t="s">
         <v>65</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C184" t="s">
         <v>109</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D184" t="s">
         <v>112</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E184" t="s">
         <v>83</v>
       </c>
-      <c r="F170">
+      <c r="F184">
         <v>1</v>
       </c>
-      <c r="G170">
+      <c r="G184">
         <v>3114</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
         <v>113</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B185" t="s">
         <v>114</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C185" t="s">
         <v>109</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D185" t="s">
         <v>112</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E185" t="s">
         <v>83</v>
       </c>
-      <c r="F171">
+      <c r="F185">
         <v>1</v>
       </c>
-      <c r="G171">
+      <c r="G185">
         <v>2824</v>
       </c>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="1"/>
-      <c r="C207" s="5"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="1"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" s="1"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" s="1"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" s="1"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" s="1"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" s="1"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="1"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" s="1"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" s="1"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" s="1"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" s="1"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" s="1"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-    </row>
-    <row r="220" spans="2:4">
-      <c r="B220" s="1"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
     </row>
     <row r="221" spans="2:4">
       <c r="B221" s="1"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" s="1"/>
@@ -9641,11 +10034,13 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" s="1"/>
+      <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" s="1"/>
       <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" s="1"/>
@@ -9678,180 +10073,248 @@
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="2:4">
+      <c r="B239" s="1"/>
+      <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="921" spans="5:5">
-      <c r="E921" s="1"/>
-    </row>
-    <row r="1057" spans="2:2">
-      <c r="B1057" s="1"/>
-    </row>
-    <row r="1058" spans="2:2">
-      <c r="B1058" s="1"/>
-    </row>
-    <row r="1183" spans="2:2">
-      <c r="B1183" s="1"/>
-    </row>
-    <row r="1184" spans="2:2">
-      <c r="B1184" s="1"/>
-    </row>
-    <row r="1185" spans="2:2">
-      <c r="B1185" s="1"/>
-    </row>
-    <row r="1186" spans="2:2">
-      <c r="B1186" s="1"/>
-    </row>
-    <row r="1187" spans="2:2">
-      <c r="B1187" s="1"/>
-    </row>
-    <row r="1188" spans="2:2">
-      <c r="B1188" s="1"/>
-    </row>
-    <row r="1233" spans="2:6">
-      <c r="E1233" s="1"/>
-      <c r="F1233" s="1"/>
-    </row>
-    <row r="1234" spans="2:6">
-      <c r="E1234" s="1"/>
-      <c r="F1234" s="1"/>
-    </row>
-    <row r="1235" spans="2:6">
-      <c r="E1235" s="1"/>
-      <c r="F1235" s="1"/>
-    </row>
-    <row r="1237" spans="2:6">
-      <c r="B1237" s="1"/>
-    </row>
-    <row r="1238" spans="2:6">
-      <c r="B1238" s="1"/>
-    </row>
-    <row r="1239" spans="2:6">
-      <c r="B1239" s="1"/>
-    </row>
-    <row r="1240" spans="2:6">
-      <c r="B1240" s="1"/>
-    </row>
-    <row r="1241" spans="2:6">
-      <c r="B1241" s="1"/>
-    </row>
-    <row r="1260" spans="2:2">
-      <c r="B1260" s="1"/>
-    </row>
-    <row r="1261" spans="2:2">
-      <c r="B1261" s="1"/>
-    </row>
-    <row r="1262" spans="2:2">
-      <c r="B1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:2">
-      <c r="B1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:2">
-      <c r="B1264" s="1"/>
-    </row>
-    <row r="1265" spans="2:2">
-      <c r="B1265" s="1"/>
-    </row>
-    <row r="1266" spans="2:2">
-      <c r="B1266" s="1"/>
-    </row>
-    <row r="1268" spans="2:2">
-      <c r="B1268" s="1"/>
-    </row>
-    <row r="1269" spans="2:2">
-      <c r="B1269" s="1"/>
-    </row>
-    <row r="1270" spans="2:2">
-      <c r="B1270" s="1"/>
-    </row>
-    <row r="1271" spans="2:2">
-      <c r="B1271" s="1"/>
-    </row>
-    <row r="1272" spans="2:2">
-      <c r="B1272" s="1"/>
-    </row>
-    <row r="1273" spans="2:2">
-      <c r="B1273" s="1"/>
-    </row>
-    <row r="1325" spans="2:2">
-      <c r="B1325" s="1"/>
-    </row>
-    <row r="1326" spans="2:2">
-      <c r="B1326" s="1"/>
-    </row>
-    <row r="1327" spans="2:2">
-      <c r="B1327" s="1"/>
-    </row>
-    <row r="1328" spans="2:2">
-      <c r="B1328" s="1"/>
-    </row>
-    <row r="1330" spans="2:2">
-      <c r="B1330" s="1"/>
-    </row>
-    <row r="1331" spans="2:2">
-      <c r="B1331" s="1"/>
-    </row>
-    <row r="1332" spans="2:2">
-      <c r="B1332" s="1"/>
-    </row>
-    <row r="1333" spans="2:2">
-      <c r="B1333" s="1"/>
-    </row>
-    <row r="1368" spans="2:2">
-      <c r="B1368" s="1"/>
-    </row>
-    <row r="1369" spans="2:2">
-      <c r="B1369" s="1"/>
-    </row>
-    <row r="1370" spans="2:2">
-      <c r="B1370" s="1"/>
-    </row>
-    <row r="1371" spans="2:2">
-      <c r="B1371" s="1"/>
-    </row>
-    <row r="1372" spans="2:2">
-      <c r="B1372" s="1"/>
-    </row>
-    <row r="1373" spans="2:2">
-      <c r="B1373" s="1"/>
-    </row>
-    <row r="1415" spans="3:6">
-      <c r="E1415" s="1"/>
-      <c r="F1415" s="1"/>
-    </row>
-    <row r="1416" spans="3:6">
-      <c r="C1416" s="6"/>
-      <c r="E1416" s="1"/>
-      <c r="F1416" s="1"/>
-    </row>
-    <row r="1417" spans="3:6">
-      <c r="C1417" s="6"/>
-      <c r="D1417" s="6"/>
-      <c r="E1417" s="1"/>
-      <c r="F1417" s="1"/>
-    </row>
-    <row r="1418" spans="3:6">
-      <c r="C1418" s="6"/>
-      <c r="D1418" s="6"/>
-      <c r="E1418" s="1"/>
-      <c r="F1418" s="1"/>
-    </row>
-    <row r="1419" spans="3:6">
-      <c r="D1419" s="6"/>
-      <c r="E1419" s="1"/>
-      <c r="F1419" s="1"/>
-    </row>
-    <row r="1482" spans="2:2">
-      <c r="B1482" s="1"/>
-    </row>
-    <row r="1483" spans="2:2">
-      <c r="B1483" s="1"/>
-    </row>
-    <row r="1484" spans="2:2">
-      <c r="B1484" s="1"/>
-    </row>
-    <row r="1485" spans="2:2">
-      <c r="B1485" s="1"/>
+    <row r="240" spans="2:4">
+      <c r="B240" s="1"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" s="1"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" s="1"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" s="1"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" s="1"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" s="1"/>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" s="1"/>
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="B247" s="1"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" s="1"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" s="1"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" s="1"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" s="1"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" s="1"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="D253" s="5"/>
+    </row>
+    <row r="935" spans="5:5">
+      <c r="E935" s="1"/>
+    </row>
+    <row r="1071" spans="2:2">
+      <c r="B1071" s="1"/>
+    </row>
+    <row r="1072" spans="2:2">
+      <c r="B1072" s="1"/>
+    </row>
+    <row r="1197" spans="2:2">
+      <c r="B1197" s="1"/>
+    </row>
+    <row r="1198" spans="2:2">
+      <c r="B1198" s="1"/>
+    </row>
+    <row r="1199" spans="2:2">
+      <c r="B1199" s="1"/>
+    </row>
+    <row r="1200" spans="2:2">
+      <c r="B1200" s="1"/>
+    </row>
+    <row r="1201" spans="2:2">
+      <c r="B1201" s="1"/>
+    </row>
+    <row r="1202" spans="2:2">
+      <c r="B1202" s="1"/>
+    </row>
+    <row r="1247" spans="5:6">
+      <c r="E1247" s="1"/>
+      <c r="F1247" s="1"/>
+    </row>
+    <row r="1248" spans="5:6">
+      <c r="E1248" s="1"/>
+      <c r="F1248" s="1"/>
+    </row>
+    <row r="1249" spans="2:6">
+      <c r="E1249" s="1"/>
+      <c r="F1249" s="1"/>
+    </row>
+    <row r="1251" spans="2:6">
+      <c r="B1251" s="1"/>
+    </row>
+    <row r="1252" spans="2:6">
+      <c r="B1252" s="1"/>
+    </row>
+    <row r="1253" spans="2:6">
+      <c r="B1253" s="1"/>
+    </row>
+    <row r="1254" spans="2:6">
+      <c r="B1254" s="1"/>
+    </row>
+    <row r="1255" spans="2:6">
+      <c r="B1255" s="1"/>
+    </row>
+    <row r="1274" spans="2:2">
+      <c r="B1274" s="1"/>
+    </row>
+    <row r="1275" spans="2:2">
+      <c r="B1275" s="1"/>
+    </row>
+    <row r="1276" spans="2:2">
+      <c r="B1276" s="1"/>
+    </row>
+    <row r="1277" spans="2:2">
+      <c r="B1277" s="1"/>
+    </row>
+    <row r="1278" spans="2:2">
+      <c r="B1278" s="1"/>
+    </row>
+    <row r="1279" spans="2:2">
+      <c r="B1279" s="1"/>
+    </row>
+    <row r="1280" spans="2:2">
+      <c r="B1280" s="1"/>
+    </row>
+    <row r="1282" spans="2:2">
+      <c r="B1282" s="1"/>
+    </row>
+    <row r="1283" spans="2:2">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284" spans="2:2">
+      <c r="B1284" s="1"/>
+    </row>
+    <row r="1285" spans="2:2">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286" spans="2:2">
+      <c r="B1286" s="1"/>
+    </row>
+    <row r="1287" spans="2:2">
+      <c r="B1287" s="1"/>
+    </row>
+    <row r="1339" spans="2:2">
+      <c r="B1339" s="1"/>
+    </row>
+    <row r="1340" spans="2:2">
+      <c r="B1340" s="1"/>
+    </row>
+    <row r="1341" spans="2:2">
+      <c r="B1341" s="1"/>
+    </row>
+    <row r="1342" spans="2:2">
+      <c r="B1342" s="1"/>
+    </row>
+    <row r="1344" spans="2:2">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345" spans="2:2">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346" spans="2:2">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347" spans="2:2">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1382" spans="2:2">
+      <c r="B1382" s="1"/>
+    </row>
+    <row r="1383" spans="2:2">
+      <c r="B1383" s="1"/>
+    </row>
+    <row r="1384" spans="2:2">
+      <c r="B1384" s="1"/>
+    </row>
+    <row r="1385" spans="2:2">
+      <c r="B1385" s="1"/>
+    </row>
+    <row r="1386" spans="2:2">
+      <c r="B1386" s="1"/>
+    </row>
+    <row r="1387" spans="2:2">
+      <c r="B1387" s="1"/>
+    </row>
+    <row r="1429" spans="3:6">
+      <c r="E1429" s="1"/>
+      <c r="F1429" s="1"/>
+    </row>
+    <row r="1430" spans="3:6">
+      <c r="C1430" s="6"/>
+      <c r="E1430" s="1"/>
+      <c r="F1430" s="1"/>
+    </row>
+    <row r="1431" spans="3:6">
+      <c r="C1431" s="6"/>
+      <c r="D1431" s="6"/>
+      <c r="E1431" s="1"/>
+      <c r="F1431" s="1"/>
+    </row>
+    <row r="1432" spans="3:6">
+      <c r="C1432" s="6"/>
+      <c r="D1432" s="6"/>
+      <c r="E1432" s="1"/>
+      <c r="F1432" s="1"/>
+    </row>
+    <row r="1433" spans="3:6">
+      <c r="D1433" s="6"/>
+      <c r="E1433" s="1"/>
+      <c r="F1433" s="1"/>
+    </row>
+    <row r="1496" spans="2:2">
+      <c r="B1496" s="1"/>
+    </row>
+    <row r="1497" spans="2:2">
+      <c r="B1497" s="1"/>
+    </row>
+    <row r="1498" spans="2:2">
+      <c r="B1498" s="1"/>
+    </row>
+    <row r="1499" spans="2:2">
+      <c r="B1499" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G1456">

--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="0" windowWidth="25560" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="115">
   <si>
     <t>featureName</t>
   </si>
@@ -588,9 +588,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2403">
+  <cellStyleXfs count="2429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3065,7 +3091,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2403">
+  <cellStyles count="2429">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4268,6 +4294,19 @@
     <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5468,6 +5507,19 @@
     <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5805,10 +5857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1499"/>
+  <dimension ref="A1:H1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6698,25 +6750,25 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="36" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="26">
-        <v>16</v>
-      </c>
-      <c r="G39" s="26">
-        <v>10320</v>
+        <v>60</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="28">
+        <v>1</v>
+      </c>
+      <c r="G39" s="28">
+        <v>10735</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6733,13 +6785,13 @@
         <v>39</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
       </c>
       <c r="G40" s="28">
-        <v>10735</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6756,13 +6808,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="28">
-        <v>1</v>
-      </c>
-      <c r="G41" s="28">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="F41" s="27">
+        <v>95</v>
+      </c>
+      <c r="G41" s="27">
+        <v>10273</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6778,14 +6830,14 @@
       <c r="D42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>70</v>
+      <c r="E42" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F42" s="27">
         <v>95</v>
       </c>
       <c r="G42" s="27">
-        <v>10273</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6801,14 +6853,14 @@
       <c r="D43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="29" t="s">
-        <v>105</v>
+      <c r="E43" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="F43" s="27">
         <v>95</v>
       </c>
       <c r="G43" s="27">
-        <v>2419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6825,13 +6877,13 @@
         <v>39</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F44" s="27">
-        <v>95</v>
+        <v>437</v>
       </c>
       <c r="G44" s="27">
-        <v>436</v>
+        <v>934</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6848,13 +6900,13 @@
         <v>39</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F45" s="27">
-        <v>437</v>
+        <v>935</v>
       </c>
       <c r="G45" s="27">
-        <v>934</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6871,13 +6923,13 @@
         <v>39</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F46" s="27">
-        <v>935</v>
+        <v>2420</v>
       </c>
       <c r="G46" s="27">
-        <v>2419</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6894,13 +6946,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="F47" s="27">
         <v>2420</v>
       </c>
       <c r="G47" s="27">
-        <v>10270</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6917,13 +6969,13 @@
         <v>39</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F48" s="27">
-        <v>2420</v>
+        <v>3476</v>
       </c>
       <c r="G48" s="27">
-        <v>3475</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6940,13 +6992,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" s="27">
-        <v>3476</v>
+        <v>4130</v>
       </c>
       <c r="G49" s="27">
-        <v>4129</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6963,13 +7015,13 @@
         <v>39</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="F50" s="27">
-        <v>4130</v>
+        <v>4520</v>
       </c>
       <c r="G50" s="27">
-        <v>4519</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6986,13 +7038,13 @@
         <v>39</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="F51" s="27">
-        <v>4520</v>
+        <v>6377</v>
       </c>
       <c r="G51" s="27">
-        <v>6376</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7009,13 +7061,13 @@
         <v>39</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F52" s="27">
-        <v>6377</v>
+        <v>6758</v>
       </c>
       <c r="G52" s="27">
-        <v>6757</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7032,13 +7084,13 @@
         <v>39</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F53" s="27">
-        <v>6758</v>
+        <v>6827</v>
       </c>
       <c r="G53" s="27">
-        <v>6826</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7055,7 +7107,7 @@
         <v>39</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F54" s="27">
         <v>7574</v>
@@ -8597,13 +8649,13 @@
         <v>107</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F121" s="27">
         <v>6258</v>
       </c>
       <c r="G121" s="27">
-        <v>7601</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8620,13 +8672,13 @@
         <v>107</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F122" s="27">
-        <v>7602</v>
+        <v>6258</v>
       </c>
       <c r="G122" s="27">
-        <v>9374</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8643,34 +8695,36 @@
         <v>107</v>
       </c>
       <c r="E123" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G123" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F124" s="27">
         <v>9378</v>
       </c>
-      <c r="G123" s="27">
+      <c r="G124" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F124" s="27">
-        <v>1</v>
-      </c>
-      <c r="G124" s="27">
-        <v>9867</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8685,13 +8739,13 @@
       </c>
       <c r="D125"/>
       <c r="E125" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F125" s="27">
         <v>1</v>
       </c>
       <c r="G125" s="27">
-        <v>327</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8706,13 +8760,13 @@
       </c>
       <c r="D126"/>
       <c r="E126" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F126" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G126" s="27">
-        <v>9501</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8727,13 +8781,13 @@
       </c>
       <c r="D127"/>
       <c r="E127" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F127" s="27">
         <v>328</v>
       </c>
       <c r="G127" s="27">
-        <v>2199</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8748,13 +8802,13 @@
       </c>
       <c r="D128"/>
       <c r="E128" s="27" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F128" s="27">
         <v>328</v>
       </c>
       <c r="G128" s="27">
-        <v>564</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8769,13 +8823,13 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F129" s="27">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="G129" s="27">
-        <v>1137</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8790,13 +8844,13 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" s="27">
-        <v>1138</v>
+        <v>565</v>
       </c>
       <c r="G130" s="27">
-        <v>2199</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8811,13 +8865,13 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="27" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F131" s="27">
-        <v>2200</v>
+        <v>1138</v>
       </c>
       <c r="G131" s="27">
-        <v>2910</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8832,13 +8886,13 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="27" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F132" s="27">
-        <v>2911</v>
+        <v>2200</v>
       </c>
       <c r="G132" s="27">
-        <v>9498</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8853,13 +8907,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F133" s="27">
         <v>2911</v>
       </c>
       <c r="G133" s="27">
-        <v>3630</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8874,13 +8928,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="27" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F134" s="27">
-        <v>3631</v>
+        <v>2911</v>
       </c>
       <c r="G134" s="27">
-        <v>5514</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8895,13 +8949,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="27" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F135" s="27">
-        <v>5515</v>
+        <v>3631</v>
       </c>
       <c r="G135" s="27">
-        <v>5637</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8916,13 +8970,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F136" s="27">
-        <v>5638</v>
+        <v>5515</v>
       </c>
       <c r="G136" s="27">
-        <v>6423</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8937,13 +8991,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F137" s="27">
-        <v>6424</v>
+        <v>5638</v>
       </c>
       <c r="G137" s="27">
-        <v>7797</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8958,10 +9012,10 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F138" s="27">
-        <v>7798</v>
+        <v>6424</v>
       </c>
       <c r="G138" s="27">
         <v>9498</v>
@@ -8979,59 +9033,55 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G139" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G140" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="27">
+      <c r="F141" s="27">
         <v>9502</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G141" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>54</v>
-      </c>
-      <c r="B140" t="s">
-        <v>63</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F140" s="27">
-        <v>1</v>
-      </c>
-      <c r="G140" s="27">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" t="s">
-        <v>54</v>
-      </c>
-      <c r="B141" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="27">
-        <v>1</v>
-      </c>
-      <c r="G141" s="27">
-        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -9048,13 +9098,13 @@
         <v>110</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F142" s="27">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G142" s="27">
-        <v>18068</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -9071,63 +9121,63 @@
         <v>110</v>
       </c>
       <c r="E143" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="27">
+        <v>1</v>
+      </c>
+      <c r="G143" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144" s="27">
+        <v>351</v>
+      </c>
+      <c r="G144" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" t="s">
+        <v>63</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E145" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F143" s="27">
+      <c r="F145" s="27">
         <v>18069</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G145" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F144" s="27">
-        <v>1</v>
-      </c>
-      <c r="G144" s="27">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="27">
-        <v>1</v>
-      </c>
-      <c r="G145" s="27">
-        <v>199</v>
-      </c>
-    </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B146" s="32" t="s">
@@ -9140,13 +9190,13 @@
         <v>111</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F146" s="27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G146" s="27">
-        <v>17905</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -9163,55 +9213,59 @@
         <v>111</v>
       </c>
       <c r="E147" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="27">
+        <v>1</v>
+      </c>
+      <c r="G147" s="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F148" s="27">
+        <v>200</v>
+      </c>
+      <c r="G148" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="27">
+      <c r="F149" s="27">
         <v>17906</v>
       </c>
-      <c r="G147" s="27">
+      <c r="G149" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B148" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F148" s="27">
-        <v>1</v>
-      </c>
-      <c r="G148" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" s="27">
-        <v>1</v>
-      </c>
-      <c r="G149" s="27">
-        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -9226,13 +9280,13 @@
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F150" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G150" s="27">
-        <v>12352</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9247,13 +9301,13 @@
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F151" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G151" s="27">
-        <v>3583</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9268,13 +9322,13 @@
       </c>
       <c r="D152" s="27"/>
       <c r="E152" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F152" s="27">
         <v>386</v>
       </c>
       <c r="G152" s="27">
-        <v>889</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9289,13 +9343,13 @@
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F153" s="27">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G153" s="27">
-        <v>1195</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9310,13 +9364,13 @@
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F154" s="27">
-        <v>1196</v>
+        <v>386</v>
       </c>
       <c r="G154" s="27">
-        <v>1876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9331,13 +9385,13 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F155" s="27">
-        <v>1877</v>
+        <v>890</v>
       </c>
       <c r="G155" s="27">
-        <v>2461</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9352,13 +9406,13 @@
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F156" s="27">
-        <v>2462</v>
+        <v>1196</v>
       </c>
       <c r="G156" s="27">
-        <v>3583</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9373,13 +9427,13 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F157" s="27">
-        <v>3584</v>
+        <v>1877</v>
       </c>
       <c r="G157" s="27">
-        <v>3793</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9394,13 +9448,13 @@
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F158" s="27">
-        <v>3794</v>
+        <v>2462</v>
       </c>
       <c r="G158" s="27">
-        <v>7471</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9415,13 +9469,13 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F159" s="27">
-        <v>7472</v>
+        <v>3584</v>
       </c>
       <c r="G159" s="27">
-        <v>7663</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9436,13 +9490,13 @@
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F160" s="27">
-        <v>7664</v>
+        <v>3794</v>
       </c>
       <c r="G160" s="27">
-        <v>8704</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9457,13 +9511,13 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F161" s="27">
-        <v>8705</v>
+        <v>7472</v>
       </c>
       <c r="G161" s="27">
-        <v>10192</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9478,13 +9532,13 @@
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F162" s="27">
-        <v>10193</v>
+        <v>7664</v>
       </c>
       <c r="G162" s="27">
-        <v>12349</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9499,76 +9553,76 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F163" s="27">
-        <v>12360</v>
+        <v>8705</v>
       </c>
       <c r="G163" s="27">
-        <v>12573</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>57</v>
+      <c r="A164" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="F164" s="27">
-        <v>1</v>
+        <v>8705</v>
       </c>
       <c r="G164" s="27">
-        <v>10053</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>57</v>
+      <c r="A165" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F165" s="27">
-        <v>1</v>
+        <v>10193</v>
       </c>
       <c r="G165" s="27">
-        <v>10053</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>57</v>
+      <c r="A166" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F166" s="27">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G166" s="27">
-        <v>2358</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9583,13 +9637,13 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F167" s="27">
         <v>1</v>
       </c>
       <c r="G167" s="27">
-        <v>345</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9604,13 +9658,13 @@
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F168" s="27">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G168" s="27">
-        <v>852</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9625,13 +9679,13 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F169" s="27">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="G169" s="27">
-        <v>852</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9646,13 +9700,13 @@
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F170" s="27">
-        <v>853</v>
+        <v>1</v>
       </c>
       <c r="G170" s="27">
-        <v>2358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9667,13 +9721,13 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F171" s="27">
-        <v>2359</v>
+        <v>346</v>
       </c>
       <c r="G171" s="27">
-        <v>10050</v>
+        <v>852</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9688,13 +9742,13 @@
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F172" s="27">
-        <v>2359</v>
+        <v>655</v>
       </c>
       <c r="G172" s="27">
-        <v>3390</v>
+        <v>852</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9709,13 +9763,13 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F173" s="27">
-        <v>3391</v>
+        <v>853</v>
       </c>
       <c r="G173" s="27">
-        <v>3978</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9730,13 +9784,13 @@
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F174" s="27">
-        <v>3979</v>
+        <v>2359</v>
       </c>
       <c r="G174" s="27">
-        <v>4431</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9751,13 +9805,13 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F175" s="27">
-        <v>4432</v>
+        <v>2359</v>
       </c>
       <c r="G175" s="27">
-        <v>6303</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9772,13 +9826,13 @@
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F176" s="27">
-        <v>6304</v>
+        <v>3391</v>
       </c>
       <c r="G176" s="27">
-        <v>6687</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9793,13 +9847,13 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F177" s="27">
-        <v>6688</v>
+        <v>3979</v>
       </c>
       <c r="G177" s="27">
-        <v>6762</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9814,13 +9868,13 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="27" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="F178" s="27">
-        <v>6763</v>
+        <v>4432</v>
       </c>
       <c r="G178" s="27">
-        <v>7557</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9835,172 +9889,220 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F179" s="27">
-        <v>7558</v>
+        <v>6304</v>
       </c>
       <c r="G179" s="27">
-        <v>10050</v>
-      </c>
-      <c r="H179" s="25"/>
+        <v>6687</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="27" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D180" s="27"/>
       <c r="E180" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F180" s="27">
-        <v>105</v>
+        <v>6688</v>
       </c>
       <c r="G180" s="27">
-        <v>2849</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>113</v>
+      <c r="A181" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D181" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F181" s="27">
-        <v>117</v>
+        <v>6763</v>
       </c>
       <c r="G181" s="27">
-        <v>2543</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="27">
+        <v>7558</v>
+      </c>
+      <c r="G182" s="27">
+        <v>10050</v>
+      </c>
+      <c r="H182" s="25"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B183" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E182" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F182" s="27">
-        <v>105</v>
-      </c>
-      <c r="G182" s="27">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>113</v>
-      </c>
-      <c r="B183" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="C183" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F183" s="27">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G183" s="27">
-        <v>2543</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
+        <v>113</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="27">
+        <v>117</v>
+      </c>
+      <c r="G184" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F185" s="27">
+        <v>105</v>
+      </c>
+      <c r="G185" s="27">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>113</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D186" t="s">
+        <v>112</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" s="27">
+        <v>117</v>
+      </c>
+      <c r="G186" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>108</v>
+      </c>
+      <c r="B187" t="s">
+        <v>65</v>
+      </c>
+      <c r="C187" t="s">
+        <v>109</v>
+      </c>
+      <c r="D187" t="s">
+        <v>112</v>
+      </c>
+      <c r="E187" t="s">
         <v>83</v>
       </c>
-      <c r="F184">
+      <c r="F187">
         <v>1</v>
       </c>
-      <c r="G184">
+      <c r="G187">
         <v>3114</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
         <v>113</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B188" t="s">
         <v>114</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C188" t="s">
         <v>109</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D188" t="s">
         <v>112</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E188" t="s">
         <v>83</v>
       </c>
-      <c r="F185">
+      <c r="F188">
         <v>1</v>
       </c>
-      <c r="G185">
+      <c r="G188">
         <v>2824</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
-      <c r="B221" s="1"/>
-      <c r="C221" s="5"/>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" s="1"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" s="1"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-    </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="2:3">
       <c r="B224" s="1"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="1"/>
@@ -10104,11 +10206,13 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="1"/>
+      <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="2:4">
       <c r="B246" s="1"/>
       <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" s="1"/>
@@ -10117,13 +10221,11 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" s="1"/>
-      <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="2:4">
       <c r="B249" s="1"/>
       <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" s="1"/>
@@ -10141,25 +10243,31 @@
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="2:4">
+      <c r="B253" s="1"/>
+      <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="935" spans="5:5">
-      <c r="E935" s="1"/>
-    </row>
-    <row r="1071" spans="2:2">
-      <c r="B1071" s="1"/>
-    </row>
-    <row r="1072" spans="2:2">
-      <c r="B1072" s="1"/>
-    </row>
-    <row r="1197" spans="2:2">
-      <c r="B1197" s="1"/>
-    </row>
-    <row r="1198" spans="2:2">
-      <c r="B1198" s="1"/>
-    </row>
-    <row r="1199" spans="2:2">
-      <c r="B1199" s="1"/>
+    <row r="254" spans="2:4">
+      <c r="B254" s="1"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" s="1"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="D256" s="5"/>
+    </row>
+    <row r="938" spans="5:5">
+      <c r="E938" s="1"/>
+    </row>
+    <row r="1074" spans="2:2">
+      <c r="B1074" s="1"/>
+    </row>
+    <row r="1075" spans="2:2">
+      <c r="B1075" s="1"/>
     </row>
     <row r="1200" spans="2:2">
       <c r="B1200" s="1"/>
@@ -10170,26 +10278,26 @@
     <row r="1202" spans="2:2">
       <c r="B1202" s="1"/>
     </row>
-    <row r="1247" spans="5:6">
-      <c r="E1247" s="1"/>
-      <c r="F1247" s="1"/>
-    </row>
-    <row r="1248" spans="5:6">
-      <c r="E1248" s="1"/>
-      <c r="F1248" s="1"/>
-    </row>
-    <row r="1249" spans="2:6">
-      <c r="E1249" s="1"/>
-      <c r="F1249" s="1"/>
+    <row r="1203" spans="2:2">
+      <c r="B1203" s="1"/>
+    </row>
+    <row r="1204" spans="2:2">
+      <c r="B1204" s="1"/>
+    </row>
+    <row r="1205" spans="2:2">
+      <c r="B1205" s="1"/>
+    </row>
+    <row r="1250" spans="2:6">
+      <c r="E1250" s="1"/>
+      <c r="F1250" s="1"/>
     </row>
     <row r="1251" spans="2:6">
-      <c r="B1251" s="1"/>
+      <c r="E1251" s="1"/>
+      <c r="F1251" s="1"/>
     </row>
     <row r="1252" spans="2:6">
-      <c r="B1252" s="1"/>
-    </row>
-    <row r="1253" spans="2:6">
-      <c r="B1253" s="1"/>
+      <c r="E1252" s="1"/>
+      <c r="F1252" s="1"/>
     </row>
     <row r="1254" spans="2:6">
       <c r="B1254" s="1"/>
@@ -10197,14 +10305,14 @@
     <row r="1255" spans="2:6">
       <c r="B1255" s="1"/>
     </row>
-    <row r="1274" spans="2:2">
-      <c r="B1274" s="1"/>
-    </row>
-    <row r="1275" spans="2:2">
-      <c r="B1275" s="1"/>
-    </row>
-    <row r="1276" spans="2:2">
-      <c r="B1276" s="1"/>
+    <row r="1256" spans="2:6">
+      <c r="B1256" s="1"/>
+    </row>
+    <row r="1257" spans="2:6">
+      <c r="B1257" s="1"/>
+    </row>
+    <row r="1258" spans="2:6">
+      <c r="B1258" s="1"/>
     </row>
     <row r="1277" spans="2:2">
       <c r="B1277" s="1"/>
@@ -10218,15 +10326,15 @@
     <row r="1280" spans="2:2">
       <c r="B1280" s="1"/>
     </row>
+    <row r="1281" spans="2:2">
+      <c r="B1281" s="1"/>
+    </row>
     <row r="1282" spans="2:2">
       <c r="B1282" s="1"/>
     </row>
     <row r="1283" spans="2:2">
       <c r="B1283" s="1"/>
     </row>
-    <row r="1284" spans="2:2">
-      <c r="B1284" s="1"/>
-    </row>
     <row r="1285" spans="2:2">
       <c r="B1285" s="1"/>
     </row>
@@ -10236,38 +10344,38 @@
     <row r="1287" spans="2:2">
       <c r="B1287" s="1"/>
     </row>
-    <row r="1339" spans="2:2">
-      <c r="B1339" s="1"/>
-    </row>
-    <row r="1340" spans="2:2">
-      <c r="B1340" s="1"/>
-    </row>
-    <row r="1341" spans="2:2">
-      <c r="B1341" s="1"/>
+    <row r="1288" spans="2:2">
+      <c r="B1288" s="1"/>
+    </row>
+    <row r="1289" spans="2:2">
+      <c r="B1289" s="1"/>
+    </row>
+    <row r="1290" spans="2:2">
+      <c r="B1290" s="1"/>
     </row>
     <row r="1342" spans="2:2">
       <c r="B1342" s="1"/>
     </row>
+    <row r="1343" spans="2:2">
+      <c r="B1343" s="1"/>
+    </row>
     <row r="1344" spans="2:2">
       <c r="B1344" s="1"/>
     </row>
     <row r="1345" spans="2:2">
       <c r="B1345" s="1"/>
     </row>
-    <row r="1346" spans="2:2">
-      <c r="B1346" s="1"/>
-    </row>
     <row r="1347" spans="2:2">
       <c r="B1347" s="1"/>
     </row>
-    <row r="1382" spans="2:2">
-      <c r="B1382" s="1"/>
-    </row>
-    <row r="1383" spans="2:2">
-      <c r="B1383" s="1"/>
-    </row>
-    <row r="1384" spans="2:2">
-      <c r="B1384" s="1"/>
+    <row r="1348" spans="2:2">
+      <c r="B1348" s="1"/>
+    </row>
+    <row r="1349" spans="2:2">
+      <c r="B1349" s="1"/>
+    </row>
+    <row r="1350" spans="2:2">
+      <c r="B1350" s="1"/>
     </row>
     <row r="1385" spans="2:2">
       <c r="B1385" s="1"/>
@@ -10278,43 +10386,52 @@
     <row r="1387" spans="2:2">
       <c r="B1387" s="1"/>
     </row>
-    <row r="1429" spans="3:6">
-      <c r="E1429" s="1"/>
-      <c r="F1429" s="1"/>
-    </row>
-    <row r="1430" spans="3:6">
-      <c r="C1430" s="6"/>
-      <c r="E1430" s="1"/>
-      <c r="F1430" s="1"/>
-    </row>
-    <row r="1431" spans="3:6">
-      <c r="C1431" s="6"/>
-      <c r="D1431" s="6"/>
-      <c r="E1431" s="1"/>
-      <c r="F1431" s="1"/>
+    <row r="1388" spans="2:2">
+      <c r="B1388" s="1"/>
+    </row>
+    <row r="1389" spans="2:2">
+      <c r="B1389" s="1"/>
+    </row>
+    <row r="1390" spans="2:2">
+      <c r="B1390" s="1"/>
     </row>
     <row r="1432" spans="3:6">
-      <c r="C1432" s="6"/>
-      <c r="D1432" s="6"/>
       <c r="E1432" s="1"/>
       <c r="F1432" s="1"/>
     </row>
     <row r="1433" spans="3:6">
-      <c r="D1433" s="6"/>
+      <c r="C1433" s="6"/>
       <c r="E1433" s="1"/>
       <c r="F1433" s="1"/>
     </row>
-    <row r="1496" spans="2:2">
-      <c r="B1496" s="1"/>
-    </row>
-    <row r="1497" spans="2:2">
-      <c r="B1497" s="1"/>
-    </row>
-    <row r="1498" spans="2:2">
-      <c r="B1498" s="1"/>
+    <row r="1434" spans="3:6">
+      <c r="C1434" s="6"/>
+      <c r="D1434" s="6"/>
+      <c r="E1434" s="1"/>
+      <c r="F1434" s="1"/>
+    </row>
+    <row r="1435" spans="3:6">
+      <c r="C1435" s="6"/>
+      <c r="D1435" s="6"/>
+      <c r="E1435" s="1"/>
+      <c r="F1435" s="1"/>
+    </row>
+    <row r="1436" spans="3:6">
+      <c r="D1436" s="6"/>
+      <c r="E1436" s="1"/>
+      <c r="F1436" s="1"/>
     </row>
     <row r="1499" spans="2:2">
       <c r="B1499" s="1"/>
+    </row>
+    <row r="1500" spans="2:2">
+      <c r="B1500" s="1"/>
+    </row>
+    <row r="1501" spans="2:2">
+      <c r="B1501" s="1"/>
+    </row>
+    <row r="1502" spans="2:2">
+      <c r="B1502" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G1456">

--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -588,9 +588,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2429">
+  <cellStyleXfs count="2439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3091,7 +3101,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2429">
+  <cellStyles count="2439">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4307,6 +4317,11 @@
     <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2438" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5520,6 +5535,11 @@
     <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2437" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5859,8 +5879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="118">
   <si>
     <t>featureName</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>REF_JMTV_SEG3</t>
+  </si>
+  <si>
+    <t>Crustacean</t>
+  </si>
+  <si>
+    <t>MK473878</t>
+  </si>
+  <si>
+    <t>REF_ccCFV</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +587,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -588,7 +603,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2439">
+  <cellStyleXfs count="2457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3028,8 +3043,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3100,8 +3133,12 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2439">
+  <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -4322,6 +4359,15 @@
     <cellStyle name="Followed Hyperlink" xfId="2434" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2436" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2456" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -5540,6 +5586,15 @@
     <cellStyle name="Hyperlink" xfId="2433" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2435" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2455" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5877,10 +5932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1502"/>
+  <dimension ref="A1:H1503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:G188"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E95" sqref="A1:G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7966,26 +8021,26 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="27" t="s">
+      <c r="A91" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F91" s="1">
         <v>1</v>
       </c>
-      <c r="G91" s="27">
-        <v>10839</v>
+      <c r="G91" s="1">
+        <v>11434</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8002,13 +8057,13 @@
         <v>43</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F92" s="27">
         <v>1</v>
       </c>
       <c r="G92" s="27">
-        <v>111</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8025,13 +8080,13 @@
         <v>43</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F93" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G93" s="27">
-        <v>10359</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8048,13 +8103,13 @@
         <v>43</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F94" s="27">
         <v>112</v>
       </c>
       <c r="G94" s="27">
-        <v>2436</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8071,13 +8126,13 @@
         <v>43</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F95" s="27">
         <v>112</v>
       </c>
       <c r="G95" s="27">
-        <v>441</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8094,13 +8149,13 @@
         <v>43</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F96" s="27">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="G96" s="27">
-        <v>945</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8117,13 +8172,13 @@
         <v>43</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F97" s="27">
-        <v>946</v>
+        <v>442</v>
       </c>
       <c r="G97" s="27">
-        <v>2436</v>
+        <v>945</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8140,13 +8195,13 @@
         <v>43</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F98" s="27">
-        <v>2437</v>
+        <v>946</v>
       </c>
       <c r="G98" s="27">
-        <v>10356</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8163,13 +8218,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="F99" s="27">
         <v>2437</v>
       </c>
       <c r="G99" s="27">
-        <v>3495</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -8186,13 +8241,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F100" s="27">
-        <v>3496</v>
+        <v>2437</v>
       </c>
       <c r="G100" s="27">
-        <v>4185</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8209,13 +8264,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F101" s="27">
-        <v>4186</v>
+        <v>3496</v>
       </c>
       <c r="G101" s="27">
-        <v>4578</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8232,13 +8287,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F102" s="27">
-        <v>4579</v>
+        <v>4186</v>
       </c>
       <c r="G102" s="27">
-        <v>6444</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8255,13 +8310,13 @@
         <v>43</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F103" s="27">
-        <v>6445</v>
+        <v>4579</v>
       </c>
       <c r="G103" s="27">
-        <v>6822</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8278,13 +8333,13 @@
         <v>43</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F104" s="27">
-        <v>6823</v>
+        <v>6445</v>
       </c>
       <c r="G104" s="27">
-        <v>6891</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8301,13 +8356,13 @@
         <v>43</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="F105" s="27">
-        <v>6892</v>
+        <v>6823</v>
       </c>
       <c r="G105" s="27">
-        <v>7647</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8324,13 +8379,13 @@
         <v>43</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F106" s="27">
-        <v>7648</v>
+        <v>6892</v>
       </c>
       <c r="G106" s="27">
-        <v>10356</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8347,36 +8402,36 @@
         <v>43</v>
       </c>
       <c r="E107" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G107" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="27">
+      <c r="F108" s="27">
         <v>10357</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G108" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F108" s="27">
-        <v>1</v>
-      </c>
-      <c r="G108" s="27">
-        <v>9646</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8393,13 +8448,13 @@
         <v>107</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F109" s="27">
         <v>1</v>
       </c>
       <c r="G109" s="27">
-        <v>341</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8416,13 +8471,13 @@
         <v>107</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F110" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G110" s="27">
-        <v>9377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8439,13 +8494,13 @@
         <v>107</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F111" s="27">
         <v>342</v>
       </c>
       <c r="G111" s="27">
-        <v>2579</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8462,13 +8517,13 @@
         <v>107</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F112" s="27">
         <v>342</v>
       </c>
       <c r="G112" s="27">
-        <v>914</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8485,13 +8540,13 @@
         <v>107</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F113" s="27">
-        <v>915</v>
+        <v>342</v>
       </c>
       <c r="G113" s="27">
-        <v>1490</v>
+        <v>914</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8508,13 +8563,13 @@
         <v>107</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" s="27">
-        <v>1491</v>
+        <v>915</v>
       </c>
       <c r="G114" s="27">
-        <v>2579</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8531,13 +8586,13 @@
         <v>107</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F115" s="27">
-        <v>2580</v>
+        <v>1491</v>
       </c>
       <c r="G115" s="27">
-        <v>9374</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8554,13 +8609,13 @@
         <v>107</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F116" s="27">
         <v>2580</v>
       </c>
       <c r="G116" s="27">
-        <v>2768</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8577,13 +8632,13 @@
         <v>107</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F117" s="27">
-        <v>2769</v>
+        <v>2580</v>
       </c>
       <c r="G117" s="27">
-        <v>3419</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8600,13 +8655,13 @@
         <v>107</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F118" s="27">
-        <v>3420</v>
+        <v>2769</v>
       </c>
       <c r="G118" s="27">
-        <v>5312</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8623,13 +8678,13 @@
         <v>107</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F119" s="27">
-        <v>5313</v>
+        <v>3420</v>
       </c>
       <c r="G119" s="27">
-        <v>5474</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8646,13 +8701,13 @@
         <v>107</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F120" s="27">
-        <v>5475</v>
+        <v>5313</v>
       </c>
       <c r="G120" s="27">
-        <v>6257</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8669,13 +8724,13 @@
         <v>107</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F121" s="27">
-        <v>6258</v>
+        <v>5475</v>
       </c>
       <c r="G121" s="27">
-        <v>9374</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8692,13 +8747,13 @@
         <v>107</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F122" s="27">
         <v>6258</v>
       </c>
       <c r="G122" s="27">
-        <v>7601</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8715,13 +8770,13 @@
         <v>107</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F123" s="27">
-        <v>7602</v>
+        <v>6258</v>
       </c>
       <c r="G123" s="27">
-        <v>9374</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8738,34 +8793,36 @@
         <v>107</v>
       </c>
       <c r="E124" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G124" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F125" s="27">
         <v>9378</v>
       </c>
-      <c r="G124" s="27">
+      <c r="G125" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F125" s="27">
-        <v>1</v>
-      </c>
-      <c r="G125" s="27">
-        <v>9867</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8780,13 +8837,13 @@
       </c>
       <c r="D126"/>
       <c r="E126" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F126" s="27">
         <v>1</v>
       </c>
       <c r="G126" s="27">
-        <v>327</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8801,13 +8858,13 @@
       </c>
       <c r="D127"/>
       <c r="E127" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F127" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G127" s="27">
-        <v>9501</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8822,13 +8879,13 @@
       </c>
       <c r="D128"/>
       <c r="E128" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F128" s="27">
         <v>328</v>
       </c>
       <c r="G128" s="27">
-        <v>2199</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8843,13 +8900,13 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="27" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F129" s="27">
         <v>328</v>
       </c>
       <c r="G129" s="27">
-        <v>564</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8864,13 +8921,13 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F130" s="27">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="G130" s="27">
-        <v>1137</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8885,13 +8942,13 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="27">
-        <v>1138</v>
+        <v>565</v>
       </c>
       <c r="G131" s="27">
-        <v>2199</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8906,13 +8963,13 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="27" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F132" s="27">
-        <v>2200</v>
+        <v>1138</v>
       </c>
       <c r="G132" s="27">
-        <v>2910</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8927,13 +8984,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="27" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F133" s="27">
-        <v>2911</v>
+        <v>2200</v>
       </c>
       <c r="G133" s="27">
-        <v>9498</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8948,13 +9005,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F134" s="27">
         <v>2911</v>
       </c>
       <c r="G134" s="27">
-        <v>3630</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8969,13 +9026,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="27" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F135" s="27">
-        <v>3631</v>
+        <v>2911</v>
       </c>
       <c r="G135" s="27">
-        <v>5514</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8990,13 +9047,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="27" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F136" s="27">
-        <v>5515</v>
+        <v>3631</v>
       </c>
       <c r="G136" s="27">
-        <v>5637</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -9011,13 +9068,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F137" s="27">
-        <v>5638</v>
+        <v>5515</v>
       </c>
       <c r="G137" s="27">
-        <v>6423</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -9032,13 +9089,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="27" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F138" s="27">
-        <v>6424</v>
+        <v>5638</v>
       </c>
       <c r="G138" s="27">
-        <v>9498</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -9053,13 +9110,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F139" s="27">
         <v>6424</v>
       </c>
       <c r="G139" s="27">
-        <v>7797</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -9074,13 +9131,13 @@
       </c>
       <c r="D140"/>
       <c r="E140" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140" s="27">
-        <v>7798</v>
+        <v>6424</v>
       </c>
       <c r="G140" s="27">
-        <v>9498</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -9095,36 +9152,34 @@
       </c>
       <c r="D141"/>
       <c r="E141" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G141" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="27">
+      <c r="F142" s="27">
         <v>9502</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G142" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>54</v>
-      </c>
-      <c r="B142" t="s">
-        <v>63</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F142" s="27">
-        <v>1</v>
-      </c>
-      <c r="G142" s="27">
-        <v>19199</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -9141,13 +9196,13 @@
         <v>110</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F143" s="27">
         <v>1</v>
       </c>
       <c r="G143" s="27">
-        <v>350</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -9164,13 +9219,13 @@
         <v>110</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F144" s="27">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G144" s="27">
-        <v>18068</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -9187,40 +9242,40 @@
         <v>110</v>
       </c>
       <c r="E145" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" s="27">
+        <v>351</v>
+      </c>
+      <c r="G145" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E146" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F146" s="27">
         <v>18069</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G146" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E146" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F146" s="27">
-        <v>1</v>
-      </c>
-      <c r="G146" s="27">
-        <v>18554</v>
-      </c>
-    </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B147" s="32" t="s">
@@ -9233,13 +9288,13 @@
         <v>111</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F147" s="27">
         <v>1</v>
       </c>
       <c r="G147" s="27">
-        <v>199</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9256,13 +9311,13 @@
         <v>111</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F148" s="27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G148" s="27">
-        <v>17905</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9279,34 +9334,36 @@
         <v>111</v>
       </c>
       <c r="E149" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F149" s="27">
+        <v>200</v>
+      </c>
+      <c r="G149" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="27">
+      <c r="F150" s="27">
         <v>17906</v>
       </c>
-      <c r="G149" s="27">
+      <c r="G150" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F150" s="27">
-        <v>1</v>
-      </c>
-      <c r="G150" s="27">
-        <v>12573</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9321,13 +9378,13 @@
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="27" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F151" s="27">
         <v>1</v>
       </c>
       <c r="G151" s="27">
-        <v>385</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9342,13 +9399,13 @@
       </c>
       <c r="D152" s="27"/>
       <c r="E152" s="27" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F152" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G152" s="27">
-        <v>12352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9363,13 +9420,13 @@
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F153" s="27">
         <v>386</v>
       </c>
       <c r="G153" s="27">
-        <v>3583</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9384,13 +9441,13 @@
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F154" s="27">
         <v>386</v>
       </c>
       <c r="G154" s="27">
-        <v>889</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9405,13 +9462,13 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F155" s="27">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G155" s="27">
-        <v>1195</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9426,13 +9483,13 @@
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="27" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="F156" s="27">
-        <v>1196</v>
+        <v>890</v>
       </c>
       <c r="G156" s="27">
-        <v>1876</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9447,13 +9504,13 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="F157" s="27">
-        <v>1877</v>
+        <v>1196</v>
       </c>
       <c r="G157" s="27">
-        <v>2461</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9468,13 +9525,13 @@
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F158" s="27">
-        <v>2462</v>
+        <v>1877</v>
       </c>
       <c r="G158" s="27">
-        <v>3583</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9489,13 +9546,13 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" s="27">
-        <v>3584</v>
+        <v>2462</v>
       </c>
       <c r="G159" s="27">
-        <v>3793</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9510,13 +9567,13 @@
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="F160" s="27">
-        <v>3794</v>
+        <v>3584</v>
       </c>
       <c r="G160" s="27">
-        <v>7471</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9531,13 +9588,13 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="F161" s="27">
-        <v>7472</v>
+        <v>3794</v>
       </c>
       <c r="G161" s="27">
-        <v>7663</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9552,13 +9609,13 @@
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F162" s="27">
-        <v>7664</v>
+        <v>7472</v>
       </c>
       <c r="G162" s="27">
-        <v>8704</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9573,13 +9630,13 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F163" s="27">
-        <v>8705</v>
+        <v>7664</v>
       </c>
       <c r="G163" s="27">
-        <v>12349</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9594,13 +9651,13 @@
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F164" s="27">
         <v>8705</v>
       </c>
       <c r="G164" s="27">
-        <v>10192</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9615,13 +9672,13 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F165" s="27">
-        <v>10193</v>
+        <v>8705</v>
       </c>
       <c r="G165" s="27">
-        <v>12349</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9636,34 +9693,34 @@
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F166" s="27">
-        <v>12360</v>
+        <v>10193</v>
       </c>
       <c r="G166" s="27">
-        <v>12573</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>57</v>
+      <c r="A167" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="27" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F167" s="27">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G167" s="27">
-        <v>10053</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9678,7 +9735,7 @@
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F168" s="27">
         <v>1</v>
@@ -9699,13 +9756,13 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F169" s="27">
         <v>1</v>
       </c>
       <c r="G169" s="27">
-        <v>2358</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9720,13 +9777,13 @@
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F170" s="27">
         <v>1</v>
       </c>
       <c r="G170" s="27">
-        <v>345</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9741,13 +9798,13 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F171" s="27">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G171" s="27">
-        <v>852</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9762,10 +9819,10 @@
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F172" s="27">
-        <v>655</v>
+        <v>346</v>
       </c>
       <c r="G172" s="27">
         <v>852</v>
@@ -9783,13 +9840,13 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F173" s="27">
-        <v>853</v>
+        <v>655</v>
       </c>
       <c r="G173" s="27">
-        <v>2358</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9804,13 +9861,13 @@
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F174" s="27">
-        <v>2359</v>
+        <v>853</v>
       </c>
       <c r="G174" s="27">
-        <v>10050</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9825,13 +9882,13 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="F175" s="27">
         <v>2359</v>
       </c>
       <c r="G175" s="27">
-        <v>3390</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9846,13 +9903,13 @@
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F176" s="27">
-        <v>3391</v>
+        <v>2359</v>
       </c>
       <c r="G176" s="27">
-        <v>3978</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9867,13 +9924,13 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F177" s="27">
-        <v>3979</v>
+        <v>3391</v>
       </c>
       <c r="G177" s="27">
-        <v>4431</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9888,13 +9945,13 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="27" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F178" s="27">
-        <v>4432</v>
+        <v>3979</v>
       </c>
       <c r="G178" s="27">
-        <v>6303</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9909,13 +9966,13 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F179" s="27">
-        <v>6304</v>
+        <v>4432</v>
       </c>
       <c r="G179" s="27">
-        <v>6687</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9930,13 +9987,13 @@
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F180" s="27">
-        <v>6688</v>
+        <v>6304</v>
       </c>
       <c r="G180" s="27">
-        <v>6762</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9951,13 +10008,13 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="F181" s="27">
-        <v>6763</v>
+        <v>6688</v>
       </c>
       <c r="G181" s="27">
-        <v>7557</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9972,45 +10029,43 @@
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="27" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F182" s="27">
-        <v>7558</v>
+        <v>6763</v>
       </c>
       <c r="G182" s="27">
-        <v>10050</v>
-      </c>
-      <c r="H182" s="25"/>
+        <v>7557</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="27" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>112</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D183" s="27"/>
       <c r="E183" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F183" s="27">
-        <v>105</v>
+        <v>7558</v>
       </c>
       <c r="G183" s="27">
-        <v>2849</v>
-      </c>
+        <v>10050</v>
+      </c>
+      <c r="H183" s="25"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>113</v>
+      <c r="A184" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>109</v>
@@ -10019,21 +10074,21 @@
         <v>112</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F184" s="27">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G184" s="27">
-        <v>2543</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="27" t="s">
-        <v>108</v>
+      <c r="A185" t="s">
+        <v>113</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>109</v>
@@ -10042,67 +10097,67 @@
         <v>112</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F185" s="27">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G185" s="27">
-        <v>2849</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>113</v>
+      <c r="A186" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E186" s="27" t="s">
         <v>70</v>
       </c>
       <c r="F186" s="27">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G186" s="27">
-        <v>2543</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>108</v>
-      </c>
-      <c r="B187" t="s">
-        <v>65</v>
-      </c>
-      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C187" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D187" t="s">
         <v>112</v>
       </c>
-      <c r="E187" t="s">
-        <v>83</v>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>3114</v>
+      <c r="E187" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F187" s="27">
+        <v>117</v>
+      </c>
+      <c r="G187" s="27">
+        <v>2543</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B188" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C188" t="s">
         <v>109</v>
@@ -10117,17 +10172,35 @@
         <v>1</v>
       </c>
       <c r="G188">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>113</v>
+      </c>
+      <c r="B189" t="s">
+        <v>114</v>
+      </c>
+      <c r="C189" t="s">
+        <v>109</v>
+      </c>
+      <c r="D189" t="s">
+        <v>112</v>
+      </c>
+      <c r="E189" t="s">
+        <v>83</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
         <v>2824</v>
       </c>
-    </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="1"/>
-      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="1"/>
       <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" s="1"/>
@@ -10241,16 +10314,16 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" s="1"/>
+      <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="2:4">
       <c r="B249" s="1"/>
-      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" s="1"/>
       <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" s="1"/>
@@ -10278,19 +10351,21 @@
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="2:4">
+      <c r="B256" s="1"/>
+      <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="938" spans="5:5">
-      <c r="E938" s="1"/>
-    </row>
-    <row r="1074" spans="2:2">
-      <c r="B1074" s="1"/>
+    <row r="257" spans="4:4">
+      <c r="D257" s="5"/>
+    </row>
+    <row r="939" spans="5:5">
+      <c r="E939" s="1"/>
     </row>
     <row r="1075" spans="2:2">
       <c r="B1075" s="1"/>
     </row>
-    <row r="1200" spans="2:2">
-      <c r="B1200" s="1"/>
+    <row r="1076" spans="2:2">
+      <c r="B1076" s="1"/>
     </row>
     <row r="1201" spans="2:2">
       <c r="B1201" s="1"/>
@@ -10307,9 +10382,8 @@
     <row r="1205" spans="2:2">
       <c r="B1205" s="1"/>
     </row>
-    <row r="1250" spans="2:6">
-      <c r="E1250" s="1"/>
-      <c r="F1250" s="1"/>
+    <row r="1206" spans="2:2">
+      <c r="B1206" s="1"/>
     </row>
     <row r="1251" spans="2:6">
       <c r="E1251" s="1"/>
@@ -10319,8 +10393,9 @@
       <c r="E1252" s="1"/>
       <c r="F1252" s="1"/>
     </row>
-    <row r="1254" spans="2:6">
-      <c r="B1254" s="1"/>
+    <row r="1253" spans="2:6">
+      <c r="E1253" s="1"/>
+      <c r="F1253" s="1"/>
     </row>
     <row r="1255" spans="2:6">
       <c r="B1255" s="1"/>
@@ -10334,8 +10409,8 @@
     <row r="1258" spans="2:6">
       <c r="B1258" s="1"/>
     </row>
-    <row r="1277" spans="2:2">
-      <c r="B1277" s="1"/>
+    <row r="1259" spans="2:6">
+      <c r="B1259" s="1"/>
     </row>
     <row r="1278" spans="2:2">
       <c r="B1278" s="1"/>
@@ -10355,8 +10430,8 @@
     <row r="1283" spans="2:2">
       <c r="B1283" s="1"/>
     </row>
-    <row r="1285" spans="2:2">
-      <c r="B1285" s="1"/>
+    <row r="1284" spans="2:2">
+      <c r="B1284" s="1"/>
     </row>
     <row r="1286" spans="2:2">
       <c r="B1286" s="1"/>
@@ -10373,8 +10448,8 @@
     <row r="1290" spans="2:2">
       <c r="B1290" s="1"/>
     </row>
-    <row r="1342" spans="2:2">
-      <c r="B1342" s="1"/>
+    <row r="1291" spans="2:2">
+      <c r="B1291" s="1"/>
     </row>
     <row r="1343" spans="2:2">
       <c r="B1343" s="1"/>
@@ -10385,8 +10460,8 @@
     <row r="1345" spans="2:2">
       <c r="B1345" s="1"/>
     </row>
-    <row r="1347" spans="2:2">
-      <c r="B1347" s="1"/>
+    <row r="1346" spans="2:2">
+      <c r="B1346" s="1"/>
     </row>
     <row r="1348" spans="2:2">
       <c r="B1348" s="1"/>
@@ -10397,8 +10472,8 @@
     <row r="1350" spans="2:2">
       <c r="B1350" s="1"/>
     </row>
-    <row r="1385" spans="2:2">
-      <c r="B1385" s="1"/>
+    <row r="1351" spans="2:2">
+      <c r="B1351" s="1"/>
     </row>
     <row r="1386" spans="2:2">
       <c r="B1386" s="1"/>
@@ -10415,18 +10490,15 @@
     <row r="1390" spans="2:2">
       <c r="B1390" s="1"/>
     </row>
-    <row r="1432" spans="3:6">
-      <c r="E1432" s="1"/>
-      <c r="F1432" s="1"/>
+    <row r="1391" spans="2:2">
+      <c r="B1391" s="1"/>
     </row>
     <row r="1433" spans="3:6">
-      <c r="C1433" s="6"/>
       <c r="E1433" s="1"/>
       <c r="F1433" s="1"/>
     </row>
     <row r="1434" spans="3:6">
       <c r="C1434" s="6"/>
-      <c r="D1434" s="6"/>
       <c r="E1434" s="1"/>
       <c r="F1434" s="1"/>
     </row>
@@ -10437,12 +10509,15 @@
       <c r="F1435" s="1"/>
     </row>
     <row r="1436" spans="3:6">
+      <c r="C1436" s="6"/>
       <c r="D1436" s="6"/>
       <c r="E1436" s="1"/>
       <c r="F1436" s="1"/>
     </row>
-    <row r="1499" spans="2:2">
-      <c r="B1499" s="1"/>
+    <row r="1437" spans="3:6">
+      <c r="D1437" s="6"/>
+      <c r="E1437" s="1"/>
+      <c r="F1437" s="1"/>
     </row>
     <row r="1500" spans="2:2">
       <c r="B1500" s="1"/>
@@ -10452,6 +10527,9 @@
     </row>
     <row r="1502" spans="2:2">
       <c r="B1502" s="1"/>
+    </row>
+    <row r="1503" spans="2:2">
+      <c r="B1503" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G1456">

--- a/tabular/virus/flavi-reference_feature_locations.xlsx
+++ b/tabular/virus/flavi-reference_feature_locations.xlsx
@@ -1,29 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/virus/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E57EE7A-3725-1343-BFF1-1DFBD684048F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="0" windowWidth="25560" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="122">
   <si>
     <t>featureName</t>
   </si>
@@ -377,12 +392,24 @@
   </si>
   <si>
     <t>REF_ccCFV</t>
+  </si>
+  <si>
+    <t>JMTV_CONCAT</t>
+  </si>
+  <si>
+    <t>REF_JMTV_CONCAT</t>
+  </si>
+  <si>
+    <t>seg3-NS3</t>
+  </si>
+  <si>
+    <t>seg1-NS5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3062,7 +3089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3136,6 +3163,9 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2457">
@@ -5931,14 +5961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E95" sqref="A1:G189"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E175" sqref="A1:G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -5949,7 +5979,7 @@
     <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -5972,7 +6002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
@@ -5995,7 +6025,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
@@ -6018,7 +6048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>32</v>
       </c>
@@ -6041,7 +6071,7 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>32</v>
       </c>
@@ -6064,7 +6094,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
@@ -6087,7 +6117,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>32</v>
       </c>
@@ -6110,7 +6140,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>32</v>
       </c>
@@ -6133,7 +6163,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
@@ -6156,7 +6186,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>32</v>
       </c>
@@ -6179,7 +6209,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>32</v>
       </c>
@@ -6202,7 +6232,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
@@ -6225,7 +6255,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
@@ -6248,7 +6278,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
@@ -6271,7 +6301,7 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>32</v>
       </c>
@@ -6294,7 +6324,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>32</v>
       </c>
@@ -6317,7 +6347,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>32</v>
       </c>
@@ -6340,7 +6370,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
@@ -6363,7 +6393,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
@@ -6386,7 +6416,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>46</v>
       </c>
@@ -6409,7 +6439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>46</v>
       </c>
@@ -6432,7 +6462,7 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>46</v>
       </c>
@@ -6455,7 +6485,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>44</v>
       </c>
@@ -6478,7 +6508,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>44</v>
       </c>
@@ -6501,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>44</v>
       </c>
@@ -6524,7 +6554,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>44</v>
       </c>
@@ -6547,7 +6577,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>44</v>
       </c>
@@ -6570,7 +6600,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6623,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>44</v>
       </c>
@@ -6616,7 +6646,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>44</v>
       </c>
@@ -6639,7 +6669,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>44</v>
       </c>
@@ -6662,7 +6692,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
@@ -6685,7 +6715,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>44</v>
       </c>
@@ -6708,7 +6738,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>44</v>
       </c>
@@ -6731,7 +6761,7 @@
         <v>6759</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>44</v>
       </c>
@@ -6754,7 +6784,7 @@
         <v>6828</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>44</v>
       </c>
@@ -6777,7 +6807,7 @@
         <v>7593</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
         <v>44</v>
       </c>
@@ -6800,7 +6830,7 @@
         <v>10317</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
         <v>44</v>
       </c>
@@ -6823,7 +6853,7 @@
         <v>10317</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>29</v>
       </c>
@@ -6846,7 +6876,7 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>29</v>
       </c>
@@ -6869,7 +6899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>29</v>
       </c>
@@ -6892,7 +6922,7 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6945,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>29</v>
       </c>
@@ -6938,7 +6968,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
         <v>29</v>
       </c>
@@ -6961,7 +6991,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
         <v>29</v>
       </c>
@@ -6984,7 +7014,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
         <v>29</v>
       </c>
@@ -7007,7 +7037,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>29</v>
       </c>
@@ -7030,7 +7060,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>29</v>
       </c>
@@ -7053,7 +7083,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
         <v>29</v>
       </c>
@@ -7076,7 +7106,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>29</v>
       </c>
@@ -7099,7 +7129,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
         <v>29</v>
       </c>
@@ -7122,7 +7152,7 @@
         <v>6757</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>29</v>
       </c>
@@ -7145,7 +7175,7 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>29</v>
       </c>
@@ -7168,7 +7198,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
         <v>29</v>
       </c>
@@ -7191,7 +7221,7 @@
         <v>10270</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>29</v>
       </c>
@@ -7214,7 +7244,7 @@
         <v>10735</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>30</v>
       </c>
@@ -7237,7 +7267,7 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1">
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>30</v>
       </c>
@@ -7260,7 +7290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
         <v>30</v>
       </c>
@@ -7283,7 +7313,7 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>30</v>
       </c>
@@ -7306,7 +7336,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
         <v>30</v>
       </c>
@@ -7329,7 +7359,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
         <v>30</v>
       </c>
@@ -7352,7 +7382,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
         <v>30</v>
       </c>
@@ -7375,7 +7405,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
         <v>30</v>
       </c>
@@ -7398,7 +7428,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7451,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
         <v>30</v>
       </c>
@@ -7444,7 +7474,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
         <v>30</v>
       </c>
@@ -7467,7 +7497,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>30</v>
       </c>
@@ -7490,7 +7520,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
         <v>30</v>
       </c>
@@ -7513,7 +7543,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
         <v>30</v>
       </c>
@@ -7536,7 +7566,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7589,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
         <v>30</v>
       </c>
@@ -7582,7 +7612,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>30</v>
       </c>
@@ -7605,7 +7635,7 @@
         <v>10862</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="37" t="s">
         <v>48</v>
       </c>
@@ -7628,7 +7658,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="37" t="s">
         <v>48</v>
       </c>
@@ -7651,7 +7681,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="37" t="s">
         <v>48</v>
       </c>
@@ -7674,7 +7704,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
         <v>48</v>
       </c>
@@ -7697,7 +7727,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
         <v>48</v>
       </c>
@@ -7720,7 +7750,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
         <v>48</v>
       </c>
@@ -7743,7 +7773,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
         <v>48</v>
       </c>
@@ -7766,7 +7796,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
         <v>48</v>
       </c>
@@ -7789,7 +7819,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
         <v>48</v>
       </c>
@@ -7812,7 +7842,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
         <v>48</v>
       </c>
@@ -7835,7 +7865,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
         <v>48</v>
       </c>
@@ -7858,7 +7888,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
         <v>48</v>
       </c>
@@ -7881,7 +7911,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
         <v>48</v>
       </c>
@@ -7904,7 +7934,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
         <v>48</v>
       </c>
@@ -7927,7 +7957,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
         <v>48</v>
       </c>
@@ -7950,7 +7980,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
         <v>48</v>
       </c>
@@ -7974,7 +8004,7 @@
       </c>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
         <v>51</v>
       </c>
@@ -7997,7 +8027,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
         <v>51</v>
       </c>
@@ -8020,7 +8050,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="44" t="s">
         <v>116</v>
       </c>
@@ -8043,7 +8073,7 @@
         <v>11434</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
         <v>33</v>
       </c>
@@ -8066,7 +8096,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
         <v>33</v>
       </c>
@@ -8089,7 +8119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
         <v>33</v>
       </c>
@@ -8112,7 +8142,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
         <v>33</v>
       </c>
@@ -8135,7 +8165,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
         <v>33</v>
       </c>
@@ -8158,7 +8188,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
         <v>33</v>
       </c>
@@ -8181,7 +8211,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
         <v>33</v>
       </c>
@@ -8204,7 +8234,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
         <v>33</v>
       </c>
@@ -8227,7 +8257,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
         <v>33</v>
       </c>
@@ -8250,7 +8280,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
         <v>33</v>
       </c>
@@ -8273,7 +8303,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
         <v>33</v>
       </c>
@@ -8296,7 +8326,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
         <v>33</v>
       </c>
@@ -8319,7 +8349,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
         <v>33</v>
       </c>
@@ -8342,7 +8372,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
         <v>33</v>
       </c>
@@ -8365,7 +8395,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
         <v>33</v>
       </c>
@@ -8388,7 +8418,7 @@
         <v>7647</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
         <v>33</v>
       </c>
@@ -8411,7 +8441,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
         <v>33</v>
       </c>
@@ -8434,7 +8464,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
         <v>34</v>
       </c>
@@ -8457,7 +8487,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="31" t="s">
         <v>34</v>
       </c>
@@ -8480,7 +8510,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>34</v>
       </c>
@@ -8503,7 +8533,7 @@
         <v>9377</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="s">
         <v>34</v>
       </c>
@@ -8526,7 +8556,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
         <v>34</v>
       </c>
@@ -8549,7 +8579,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="31" t="s">
         <v>34</v>
       </c>
@@ -8572,7 +8602,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="31" t="s">
         <v>34</v>
       </c>
@@ -8595,7 +8625,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="31" t="s">
         <v>34</v>
       </c>
@@ -8618,7 +8648,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
         <v>34</v>
       </c>
@@ -8641,7 +8671,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="s">
         <v>34</v>
       </c>
@@ -8664,7 +8694,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="31" t="s">
         <v>34</v>
       </c>
@@ -8687,7 +8717,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="31" t="s">
         <v>34</v>
       </c>
@@ -8710,7 +8740,7 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="31" t="s">
         <v>34</v>
       </c>
@@ -8733,7 +8763,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="31" t="s">
         <v>34</v>
       </c>
@@ -8756,7 +8786,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="31" t="s">
         <v>34</v>
       </c>
@@ -8779,7 +8809,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="31" t="s">
         <v>34</v>
       </c>
@@ -8802,7 +8832,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="31" t="s">
         <v>34</v>
       </c>
@@ -8825,7 +8855,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="35" t="s">
         <v>37</v>
       </c>
@@ -8846,7 +8876,7 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="35" t="s">
         <v>37</v>
       </c>
@@ -8867,7 +8897,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="35" t="s">
         <v>37</v>
       </c>
@@ -8888,7 +8918,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="35" t="s">
         <v>37</v>
       </c>
@@ -8909,7 +8939,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="35" t="s">
         <v>37</v>
       </c>
@@ -8930,7 +8960,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="35" t="s">
         <v>37</v>
       </c>
@@ -8951,7 +8981,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="35" t="s">
         <v>37</v>
       </c>
@@ -8972,7 +9002,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="35" t="s">
         <v>37</v>
       </c>
@@ -8993,7 +9023,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="35" t="s">
         <v>37</v>
       </c>
@@ -9014,7 +9044,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="35" t="s">
         <v>37</v>
       </c>
@@ -9035,7 +9065,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="35" t="s">
         <v>37</v>
       </c>
@@ -9056,7 +9086,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="35" t="s">
         <v>37</v>
       </c>
@@ -9077,7 +9107,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="35" t="s">
         <v>37</v>
       </c>
@@ -9098,7 +9128,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="35" t="s">
         <v>37</v>
       </c>
@@ -9119,7 +9149,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="35" t="s">
         <v>37</v>
       </c>
@@ -9140,7 +9170,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="35" t="s">
         <v>37</v>
       </c>
@@ -9161,7 +9191,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="35" t="s">
         <v>37</v>
       </c>
@@ -9182,7 +9212,7 @@
         <v>9867</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>54</v>
       </c>
@@ -9205,7 +9235,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>54</v>
       </c>
@@ -9228,7 +9258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -9251,7 +9281,7 @@
         <v>18068</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>54</v>
       </c>
@@ -9274,7 +9304,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="32" t="s">
         <v>84</v>
       </c>
@@ -9297,7 +9327,7 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="34" t="s">
         <v>84</v>
       </c>
@@ -9320,7 +9350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="34" t="s">
         <v>84</v>
       </c>
@@ -9343,7 +9373,7 @@
         <v>17905</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="34" t="s">
         <v>84</v>
       </c>
@@ -9366,7 +9396,7 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="30" t="s">
         <v>35</v>
       </c>
@@ -9387,7 +9417,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="30" t="s">
         <v>35</v>
       </c>
@@ -9408,7 +9438,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="30" t="s">
         <v>35</v>
       </c>
@@ -9429,7 +9459,7 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
         <v>35</v>
       </c>
@@ -9450,7 +9480,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="30" t="s">
         <v>35</v>
       </c>
@@ -9471,7 +9501,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="30" t="s">
         <v>35</v>
       </c>
@@ -9492,7 +9522,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="30" t="s">
         <v>35</v>
       </c>
@@ -9513,7 +9543,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="30" t="s">
         <v>35</v>
       </c>
@@ -9534,7 +9564,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="30" t="s">
         <v>35</v>
       </c>
@@ -9555,7 +9585,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="30" t="s">
         <v>35</v>
       </c>
@@ -9576,7 +9606,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="30" t="s">
         <v>35</v>
       </c>
@@ -9597,7 +9627,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="30" t="s">
         <v>35</v>
       </c>
@@ -9618,7 +9648,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="30" t="s">
         <v>35</v>
       </c>
@@ -9639,7 +9669,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="30" t="s">
         <v>35</v>
       </c>
@@ -9660,7 +9690,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="30" t="s">
         <v>35</v>
       </c>
@@ -9681,7 +9711,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="30" t="s">
         <v>35</v>
       </c>
@@ -9702,7 +9732,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="30" t="s">
         <v>35</v>
       </c>
@@ -9723,7 +9753,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="27" t="s">
         <v>52</v>
       </c>
@@ -9744,7 +9774,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="27" t="s">
         <v>52</v>
       </c>
@@ -9765,7 +9795,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="27" t="s">
         <v>52</v>
       </c>
@@ -9786,7 +9816,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="27" t="s">
         <v>52</v>
       </c>
@@ -9807,7 +9837,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
         <v>52</v>
       </c>
@@ -9828,7 +9858,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="27" t="s">
         <v>52</v>
       </c>
@@ -9849,7 +9879,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="27" t="s">
         <v>52</v>
       </c>
@@ -9870,7 +9900,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="27" t="s">
         <v>52</v>
       </c>
@@ -9891,7 +9921,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
         <v>52</v>
       </c>
@@ -9912,7 +9942,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="27" t="s">
         <v>52</v>
       </c>
@@ -9933,7 +9963,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="27" t="s">
         <v>52</v>
       </c>
@@ -9954,7 +9984,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="27" t="s">
         <v>52</v>
       </c>
@@ -9975,7 +10005,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="27" t="s">
         <v>52</v>
       </c>
@@ -9996,7 +10026,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="27" t="s">
         <v>52</v>
       </c>
@@ -10017,7 +10047,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="27" t="s">
         <v>52</v>
       </c>
@@ -10038,7 +10068,7 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="27" t="s">
         <v>52</v>
       </c>
@@ -10060,44 +10090,38 @@
       </c>
       <c r="H183" s="25"/>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B184" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184" s="27" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C184" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D184" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E184" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="27">
-        <v>105</v>
-      </c>
-      <c r="G184" s="27">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="E184" t="s">
+        <v>83</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>113</v>
-      </c>
-      <c r="B185" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C185" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B185" t="s">
+        <v>119</v>
+      </c>
+      <c r="C185" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D185" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="E185" s="27" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="F185" s="27">
         <v>117</v>
@@ -10106,433 +10130,362 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B186" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C186" s="27" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>118</v>
+      </c>
+      <c r="B186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D186" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="E186" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F186" s="27">
-        <v>105</v>
+        <v>121</v>
+      </c>
+      <c r="F186">
+        <f t="shared" ref="F186" si="0">(D186+2824)</f>
+        <v>2824</v>
       </c>
       <c r="G186" s="27">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>113</v>
-      </c>
-      <c r="B187" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C187" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D187" t="s">
-        <v>112</v>
-      </c>
-      <c r="E187" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F187" s="27">
-        <v>117</v>
-      </c>
-      <c r="G187" s="27">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>108</v>
-      </c>
-      <c r="B188" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188" t="s">
-        <v>109</v>
-      </c>
-      <c r="D188" t="s">
-        <v>112</v>
-      </c>
-      <c r="E188" t="s">
-        <v>83</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>113</v>
-      </c>
-      <c r="B189" t="s">
-        <v>114</v>
-      </c>
-      <c r="C189" t="s">
-        <v>109</v>
-      </c>
-      <c r="D189" t="s">
-        <v>112</v>
-      </c>
-      <c r="E189" t="s">
-        <v>83</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="1"/>
       <c r="C225" s="5"/>
     </row>
-    <row r="226" spans="2:4">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="2:4">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="2:4">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="2:4">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="2:4">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="2:4">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="2:4">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="2:4">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="2:4">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="2:4">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="2:4">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="2:4">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="2:4">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="2:4">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="2:4">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="2:4">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="2:4">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="5"/>
     </row>
-    <row r="939" spans="5:5">
+    <row r="939" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E939" s="1"/>
     </row>
-    <row r="1075" spans="2:2">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1075" s="1"/>
     </row>
-    <row r="1076" spans="2:2">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1076" s="1"/>
     </row>
-    <row r="1201" spans="2:2">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1201" s="1"/>
     </row>
-    <row r="1202" spans="2:2">
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1202" s="1"/>
     </row>
-    <row r="1203" spans="2:2">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1203" s="1"/>
     </row>
-    <row r="1204" spans="2:2">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1204" s="1"/>
     </row>
-    <row r="1205" spans="2:2">
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1205" s="1"/>
     </row>
-    <row r="1206" spans="2:2">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1206" s="1"/>
     </row>
-    <row r="1251" spans="2:6">
+    <row r="1251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1251" s="1"/>
       <c r="F1251" s="1"/>
     </row>
-    <row r="1252" spans="2:6">
+    <row r="1252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1252" s="1"/>
       <c r="F1252" s="1"/>
     </row>
-    <row r="1253" spans="2:6">
+    <row r="1253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1253" s="1"/>
       <c r="F1253" s="1"/>
     </row>
-    <row r="1255" spans="2:6">
+    <row r="1255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1255" s="1"/>
     </row>
-    <row r="1256" spans="2:6">
+    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1256" s="1"/>
     </row>
-    <row r="1257" spans="2:6">
+    <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1257" s="1"/>
     </row>
-    <row r="1258" spans="2:6">
+    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1258" s="1"/>
     </row>
-    <row r="1259" spans="2:6">
+    <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1259" s="1"/>
     </row>
-    <row r="1278" spans="2:2">
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1278" s="1"/>
     </row>
-    <row r="1279" spans="2:2">
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1279" s="1"/>
     </row>
-    <row r="1280" spans="2:2">
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1280" s="1"/>
     </row>
-    <row r="1281" spans="2:2">
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1281" s="1"/>
     </row>
-    <row r="1282" spans="2:2">
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1282" s="1"/>
     </row>
-    <row r="1283" spans="2:2">
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1283" s="1"/>
     </row>
-    <row r="1284" spans="2:2">
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1284" s="1"/>
     </row>
-    <row r="1286" spans="2:2">
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1286" s="1"/>
     </row>
-    <row r="1287" spans="2:2">
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1287" s="1"/>
     </row>
-    <row r="1288" spans="2:2">
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
     </row>
-    <row r="1289" spans="2:2">
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1289" s="1"/>
     </row>
-    <row r="1290" spans="2:2">
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1"/>
     </row>
-    <row r="1291" spans="2:2">
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1"/>
     </row>
-    <row r="1343" spans="2:2">
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1343" s="1"/>
     </row>
-    <row r="1344" spans="2:2">
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1344" s="1"/>
     </row>
-    <row r="1345" spans="2:2">
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1345" s="1"/>
     </row>
-    <row r="1346" spans="2:2">
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1346" s="1"/>
     </row>
-    <row r="1348" spans="2:2">
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1"/>
     </row>
-    <row r="1349" spans="2:2">
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1349" s="1"/>
     </row>
-    <row r="1350" spans="2:2">
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1"/>
     </row>
-    <row r="1351" spans="2:2">
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1351" s="1"/>
     </row>
-    <row r="1386" spans="2:2">
+    <row r="1386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1386" s="1"/>
     </row>
-    <row r="1387" spans="2:2">
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1387" s="1"/>
     </row>
-    <row r="1388" spans="2:2">
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1388" s="1"/>
     </row>
-    <row r="1389" spans="2:2">
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1389" s="1"/>
     </row>
-    <row r="1390" spans="2:2">
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1390" s="1"/>
     </row>
-    <row r="1391" spans="2:2">
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1391" s="1"/>
     </row>
-    <row r="1433" spans="3:6">
+    <row r="1433" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E1433" s="1"/>
       <c r="F1433" s="1"/>
     </row>
-    <row r="1434" spans="3:6">
+    <row r="1434" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1434" s="6"/>
       <c r="E1434" s="1"/>
       <c r="F1434" s="1"/>
     </row>
-    <row r="1435" spans="3:6">
+    <row r="1435" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1435" s="6"/>
       <c r="D1435" s="6"/>
       <c r="E1435" s="1"/>
       <c r="F1435" s="1"/>
     </row>
-    <row r="1436" spans="3:6">
+    <row r="1436" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1436" s="6"/>
       <c r="D1436" s="6"/>
       <c r="E1436" s="1"/>
       <c r="F1436" s="1"/>
     </row>
-    <row r="1437" spans="3:6">
+    <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D1437" s="6"/>
       <c r="E1437" s="1"/>
       <c r="F1437" s="1"/>
     </row>
-    <row r="1500" spans="2:2">
+    <row r="1500" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1500" s="1"/>
     </row>
-    <row r="1501" spans="2:2">
+    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1501" s="1"/>
     </row>
-    <row r="1502" spans="2:2">
+    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1502" s="1"/>
     </row>
-    <row r="1503" spans="2:2">
+    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1503" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G1456">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1456">
     <sortCondition ref="C2:C1456"/>
     <sortCondition ref="D2:D1456"/>
   </sortState>
@@ -10547,16 +10500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="A28:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10579,7 +10532,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -10602,7 +10555,7 @@
         <v>10389</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -10625,7 +10578,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -10648,7 +10601,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -10671,7 +10624,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -10694,7 +10647,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -10717,7 +10670,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -10740,7 +10693,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -10763,7 +10716,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -10786,7 +10739,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -10809,7 +10762,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -10832,7 +10785,7 @@
         <v>10386</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -10855,7 +10808,7 @@
         <v>10962</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -10878,7 +10831,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -10901,7 +10854,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -10924,7 +10877,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -10947,7 +10900,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -10970,7 +10923,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -10993,7 +10946,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -11016,7 +10969,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1">
+    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -11039,7 +10992,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -11062,7 +11015,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -11085,7 +11038,7 @@
         <v>6832</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -11108,7 +11061,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -11131,7 +11084,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -11154,7 +11107,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -11177,7 +11130,7 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -11200,7 +11153,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -11223,7 +11176,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -11243,7 +11196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -11263,7 +11216,7 @@
         <v>12352</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -11283,7 +11236,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -11303,7 +11256,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -11323,7 +11276,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -11343,7 +11296,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -11363,7 +11316,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -11383,7 +11336,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -11403,7 +11356,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -11423,7 +11376,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -11443,7 +11396,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -11463,7 +11416,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -11483,7 +11436,7 @@
         <v>12349</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -11503,7 +11456,7 @@
         <v>12573</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -11526,7 +11479,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -11549,7 +11502,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -11572,7 +11525,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -11604,4 +11557,164 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8293D89-B7CB-1741-83BA-13C722E955F9}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="27">
+        <v>105</v>
+      </c>
+      <c r="G1" s="27">
+        <v>2849</v>
+      </c>
+      <c r="H1">
+        <f>(F1+2824)</f>
+        <v>2929</v>
+      </c>
+      <c r="I1">
+        <f>(G1+2824)</f>
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="27">
+        <v>105</v>
+      </c>
+      <c r="G2" s="27">
+        <v>2849</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="0">(F2+2824)</f>
+        <v>2929</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I3" si="1">(G2+2824)</f>
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3114</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>2825</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="27">
+        <v>117</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2824</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>